--- a/src/test/java/com/nablarch/example/app/web/action/ProjectUploadActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectUploadActionRequestTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="16380" windowHeight="8100" tabRatio="766" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16380" windowHeight="8100" tabRatio="766" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="107">
   <si>
     <t>1</t>
     <phoneticPr fontId="2"/>
@@ -412,10 +412,6 @@
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>0</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1757,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>20</v>
@@ -2302,7 +2298,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -2566,7 +2562,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -2824,7 +2820,7 @@
     </row>
     <row r="10" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="9"/>
@@ -3395,8 +3391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
@@ -3704,7 +3700,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>12</v>
@@ -3719,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>20</v>
@@ -5404,7 +5400,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="44" t="s">
         <v>75</v>
@@ -5413,38 +5409,38 @@
         <v>76</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" s="44" t="s">
         <v>77</v>
       </c>
       <c r="G19" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="I19" s="44" t="s">
         <v>83</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>84</v>
       </c>
       <c r="J19" s="43"/>
       <c r="K19" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L19" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M19" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N19" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O19" s="44" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5463,7 +5459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -5772,7 +5768,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>12</v>
@@ -5787,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>20</v>
@@ -5796,10 +5792,10 @@
         <v>51</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>86</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>87</v>
       </c>
       <c r="G4" s="46" t="s">
         <v>77</v>
@@ -5811,37 +5807,37 @@
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>77</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>20</v>
@@ -5850,10 +5846,10 @@
         <v>51</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" s="46" t="s">
         <v>0</v>
@@ -5865,10 +5861,10 @@
     </row>
     <row r="7" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>20</v>
@@ -5877,10 +5873,10 @@
         <v>51</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7" s="46" t="s">
         <v>0</v>
@@ -7223,31 +7219,31 @@
         <v>1</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="37" t="s">
         <v>90</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectUploadActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectUploadActionRequestTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="16380" windowHeight="8100" tabRatio="766" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16380" windowHeight="8100" tabRatio="766" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="107">
   <si>
     <t>1</t>
     <phoneticPr fontId="2"/>
@@ -332,10 +332,6 @@
   </si>
   <si>
     <t>${attach:./work/requestTest/uploadNormal.csv}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>success.upload.project</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1757,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>20</v>
@@ -2302,7 +2298,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -2566,7 +2562,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -2824,7 +2820,7 @@
     </row>
     <row r="10" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="9"/>
@@ -3395,8 +3391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
@@ -3704,7 +3700,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>12</v>
@@ -3719,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>20</v>
@@ -3730,15 +3726,13 @@
       <c r="E4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="38" t="s">
-        <v>58</v>
-      </c>
+      <c r="F4" s="38"/>
       <c r="G4" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -5338,7 +5332,7 @@
     </row>
     <row r="17" spans="1:15" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
@@ -5357,94 +5351,94 @@
     </row>
     <row r="18" spans="1:15" s="41" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A18" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="C18" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="D18" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="E18" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="F18" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="G18" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="H18" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="I18" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="J18" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="J18" s="42" t="s">
+      <c r="K18" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="K18" s="42" t="s">
+      <c r="L18" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="L18" s="42" t="s">
+      <c r="M18" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="M18" s="42" t="s">
+      <c r="N18" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="N18" s="42" t="s">
+      <c r="O18" s="42" t="s">
         <v>73</v>
-      </c>
-      <c r="O18" s="42" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="44" t="s">
+      <c r="E19" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="G19" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="43" t="s">
+      <c r="H19" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="I19" s="44" t="s">
         <v>83</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>84</v>
       </c>
       <c r="J19" s="43"/>
       <c r="K19" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L19" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M19" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N19" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O19" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -5463,7 +5457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -5772,7 +5766,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>12</v>
@@ -5787,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>20</v>
@@ -5796,13 +5790,13 @@
         <v>51</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="38" t="s">
-        <v>87</v>
-      </c>
       <c r="G4" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
@@ -5811,37 +5805,37 @@
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>20</v>
@@ -5850,10 +5844,10 @@
         <v>51</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" s="46" t="s">
         <v>0</v>
@@ -5865,10 +5859,10 @@
     </row>
     <row r="7" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>20</v>
@@ -5877,10 +5871,10 @@
         <v>51</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7" s="46" t="s">
         <v>0</v>
@@ -7223,31 +7217,31 @@
         <v>1</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="37" t="s">
         <v>90</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -7511,7 +7505,7 @@
     </row>
     <row r="22" spans="1:255" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -7530,49 +7524,49 @@
     </row>
     <row r="23" spans="1:255" s="41" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A23" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="C23" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="D23" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="E23" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="F23" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="G23" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="42" t="s">
+      <c r="H23" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="42" t="s">
+      <c r="I23" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="J23" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="J23" s="42" t="s">
+      <c r="K23" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="K23" s="42" t="s">
+      <c r="L23" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="L23" s="42" t="s">
+      <c r="M23" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="M23" s="42" t="s">
+      <c r="N23" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="N23" s="42" t="s">
+      <c r="O23" s="42" t="s">
         <v>73</v>
-      </c>
-      <c r="O23" s="42" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectUploadActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectUploadActionRequestTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="16380" windowHeight="8100" tabRatio="766" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16380" windowHeight="8100" tabRatio="766"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="134">
   <si>
     <t>1</t>
     <phoneticPr fontId="2"/>
@@ -581,6 +581,149 @@
   </si>
   <si>
     <t>${attach:./work/requestTest/uploadAbNormal_formatError2.csv}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SETUP_TABLE=SYSTEM_ACCOUNT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LOGIN_ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USER_PASSWORD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USER_ID_LOCKED</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PASSWORD_EXPIRATION_DATE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FAILED_COUNT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EFFECTIVE_DATE_FROM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EFFECTIVE_DATE_TO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LAST_LOGIN_DATE_TIME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VERSION</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10000001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nLf7+E3ObKARUBw+6bvSRyfJ9Cy0HCcsa0DqZIE93K0=</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+      </rPr>
+      <t>20170410</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+      </rPr>
+      <t>20130802</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+      </rPr>
+      <t>20170404</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SETUP_TABLE=USERS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KANJI_NAME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KANA_NAME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般ユーザ１</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イッパンイチ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -803,7 +946,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -889,6 +1032,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1260,10 +1406,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
@@ -1297,121 +1443,252 @@
         <v>49</v>
       </c>
     </row>
+    <row r="3" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
+      <c r="A4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="28" t="s">
-        <v>37</v>
+      <c r="A5" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>45</v>
-      </c>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="9"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>46</v>
-      </c>
+      <c r="A8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>48</v>
-      </c>
+      <c r="A9" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>44</v>
-      </c>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>41</v>
-      </c>
+      <c r="A12" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B21" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C21" s="32" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3391,9 +3668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectUploadActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectUploadActionRequestTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="16380" windowHeight="8100" tabRatio="766"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16380" windowHeight="8100" tabRatio="766" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="133">
   <si>
     <t>1</t>
     <phoneticPr fontId="2"/>
@@ -331,10 +331,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>${attach:./work/requestTest/uploadNormal.csv}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>EXPECTED_TABLE[1]=PROJECT</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -438,10 +434,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>${attach:./work/requestTest/uploadAbNormal.csv}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>400</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -459,10 +451,6 @@
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>${attach:./work/requestTest/uploadNormal.csv}</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -547,10 +535,6 @@
     <rPh sb="19" eb="21">
       <t>フソク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>${attach:./work/requestTest/uploadAbNormal_formatError.csv}</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -580,10 +564,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>${attach:./work/requestTest/uploadAbNormal_formatError2.csv}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SETUP_TABLE=SYSTEM_ACCOUNT</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -724,6 +704,22 @@
   </si>
   <si>
     <t>イッパンイチ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${attach:./src/test/resources/data/requestTest/uploadAbNormal.csv}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${attach:./src/test/resources/data/requestTest/uploadNormal.csv}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${attach:./src/test/resources/data/requestTest/uploadAbNormal_formatError.csv}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${attach:./src/test/resources/data/requestTest/uploadAbNormal_formatError2.csv}</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1408,7 +1404,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1446,7 +1442,7 @@
     <row r="3" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -1457,64 +1453,64 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="G5" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="H5" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="I5" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="J5" s="35" t="s">
         <v>112</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="G6" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="H6" s="52" t="s">
         <v>120</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>125</v>
       </c>
       <c r="I6" s="53"/>
       <c r="J6" s="52" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.35">
@@ -1531,7 +1527,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -1542,13 +1538,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -1559,13 +1555,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -2030,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>20</v>
@@ -2575,7 +2571,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -2839,7 +2835,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -3097,7 +3093,7 @@
     </row>
     <row r="10" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="9"/>
@@ -3668,7 +3664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3975,7 +3973,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>12</v>
@@ -3990,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>20</v>
@@ -4003,7 +4001,7 @@
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
@@ -5343,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -5607,7 +5605,7 @@
     </row>
     <row r="17" spans="1:15" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
@@ -5626,94 +5624,94 @@
     </row>
     <row r="18" spans="1:15" s="41" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A18" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="C18" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="D18" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="E18" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="F18" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="G18" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="H18" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="I18" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="J18" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="42" t="s">
+      <c r="K18" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="42" t="s">
+      <c r="L18" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="42" t="s">
+      <c r="M18" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="M18" s="42" t="s">
+      <c r="N18" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="N18" s="42" t="s">
+      <c r="O18" s="42" t="s">
         <v>72</v>
-      </c>
-      <c r="O18" s="42" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="44" t="s">
+      <c r="E19" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="G19" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="43" t="s">
+      <c r="H19" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="I19" s="44" t="s">
         <v>82</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>83</v>
       </c>
       <c r="J19" s="43"/>
       <c r="K19" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L19" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M19" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N19" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O19" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -6041,7 +6039,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>12</v>
@@ -6056,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>20</v>
@@ -6065,13 +6063,13 @@
         <v>51</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
@@ -6080,37 +6078,37 @@
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>91</v>
-      </c>
       <c r="G5" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>20</v>
@@ -6119,10 +6117,10 @@
         <v>51</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G6" s="46" t="s">
         <v>0</v>
@@ -6134,10 +6132,10 @@
     </row>
     <row r="7" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>20</v>
@@ -6146,10 +6144,10 @@
         <v>51</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G7" s="46" t="s">
         <v>0</v>
@@ -7492,31 +7490,31 @@
         <v>1</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -7780,7 +7778,7 @@
     </row>
     <row r="22" spans="1:255" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -7799,49 +7797,49 @@
     </row>
     <row r="23" spans="1:255" s="41" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A23" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="C23" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="D23" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="E23" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="F23" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="G23" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="42" t="s">
+      <c r="H23" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="42" t="s">
+      <c r="I23" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="J23" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="42" t="s">
+      <c r="K23" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="42" t="s">
+      <c r="L23" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="42" t="s">
+      <c r="M23" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="M23" s="42" t="s">
+      <c r="N23" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="N23" s="42" t="s">
+      <c r="O23" s="42" t="s">
         <v>72</v>
-      </c>
-      <c r="O23" s="42" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectUploadActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectUploadActionRequestTest.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994A8EC0-CA32-4BA8-A8C2-17EBAB9D512E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="16380" windowHeight="8100" tabRatio="766" activeTab="2"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
     <sheet name="indexNormal" sheetId="2" r:id="rId2"/>
-    <sheet name="uploadNormal" sheetId="3" r:id="rId3"/>
-    <sheet name="uploadAbNormal" sheetId="4" r:id="rId4"/>
+    <sheet name="indexForbidden" sheetId="7" r:id="rId3"/>
+    <sheet name="uploadNormal" sheetId="3" r:id="rId4"/>
+    <sheet name="uploadAbNormal" sheetId="4" r:id="rId5"/>
+    <sheet name="uploadForbidden" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn_Print_Area_1">NA()</definedName>
@@ -20,12 +23,23 @@
     <definedName name="Excel_BuiltIn_Sheet_Title_2">"testIndex"</definedName>
     <definedName name="Excel_BuiltIn_Sheet_Title_3">"setUpDb"</definedName>
   </definedNames>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="140">
   <si>
     <t>1</t>
     <phoneticPr fontId="2"/>
@@ -695,11 +709,49 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>105</t>
+    <t>${attach:./src/test/resources/data/requestTest/uploadAbNormal.csv}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${attach:./src/test/resources/data/requestTest/uploadNormal.csv}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${attach:./src/test/resources/data/requestTest/uploadAbNormal_formatError.csv}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${attach:./src/test/resources/data/requestTest/uploadAbNormal_formatError2.csv}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ADMIN_FLAG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者ユーザ１</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カンリシャイチ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10000002</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>一般ユーザ１</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -707,26 +759,28 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>${attach:./src/test/resources/data/requestTest/uploadAbNormal.csv}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>${attach:./src/test/resources/data/requestTest/uploadNormal.csv}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>${attach:./src/test/resources/data/requestTest/uploadAbNormal_formatError.csv}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>${attach:./src/test/resources/data/requestTest/uploadAbNormal_formatError2.csv}</t>
+    <t>権限チェックエラー発生</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>403</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/WEB-INF/view/common/errorPages/permissionError.jsp</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
@@ -942,7 +996,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1031,10 +1085,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_testMenus00102Normal" xfId="1"/>
+    <cellStyle name="標準_testMenus00102Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1110,12 +1165,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1157,7 +1215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1190,9 +1248,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1225,6 +1300,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1400,13 +1492,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1462,24 +1552,27 @@
         <v>105</v>
       </c>
       <c r="D5" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="F5" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="G5" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="H5" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="I5" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="J5" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="K5" s="35" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1494,41 +1587,66 @@
         <v>115</v>
       </c>
       <c r="D6" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="F6" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="G6" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="H6" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="I6" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="53"/>
+      <c r="K6" s="52" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="53"/>
+      <c r="K7" s="52" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>122</v>
-      </c>
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -1537,14 +1655,8 @@
       <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>125</v>
+      <c r="A9" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -1554,14 +1666,14 @@
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>128</v>
+      <c r="A10" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>125</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -1570,121 +1682,155 @@
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
     </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="O13" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="P13" s="28" t="s">
-        <v>37</v>
-      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>46</v>
+      <c r="A15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>48</v>
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>41</v>
+      <c r="A19" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B23" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C23" s="32" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1701,13 +1847,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:IV17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3661,12 +3805,1957 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72460075-4EA4-489C-B8AC-44047F74036B}">
+  <dimension ref="A1:IU17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.42578125" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="11.28515625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
+      <c r="BM1" s="5"/>
+      <c r="BN1" s="5"/>
+      <c r="BO1" s="5"/>
+      <c r="BP1" s="5"/>
+      <c r="BQ1" s="5"/>
+      <c r="BR1" s="5"/>
+      <c r="BS1" s="5"/>
+      <c r="BT1" s="5"/>
+      <c r="BU1" s="5"/>
+      <c r="BV1" s="5"/>
+      <c r="BW1" s="5"/>
+      <c r="BX1" s="5"/>
+      <c r="BY1" s="5"/>
+      <c r="BZ1" s="5"/>
+      <c r="CA1" s="5"/>
+      <c r="CB1" s="5"/>
+      <c r="CC1" s="5"/>
+      <c r="CD1" s="5"/>
+      <c r="CE1" s="5"/>
+      <c r="CF1" s="5"/>
+      <c r="CG1" s="5"/>
+      <c r="CH1" s="5"/>
+      <c r="CI1" s="5"/>
+      <c r="CJ1" s="5"/>
+      <c r="CK1" s="5"/>
+      <c r="CL1" s="5"/>
+      <c r="CM1" s="5"/>
+      <c r="CN1" s="5"/>
+      <c r="CO1" s="5"/>
+      <c r="CP1" s="5"/>
+      <c r="CQ1" s="5"/>
+      <c r="CR1" s="5"/>
+      <c r="CS1" s="5"/>
+      <c r="CT1" s="5"/>
+      <c r="CU1" s="5"/>
+      <c r="CV1" s="5"/>
+      <c r="CW1" s="5"/>
+      <c r="CX1" s="5"/>
+      <c r="CY1" s="5"/>
+      <c r="CZ1" s="5"/>
+      <c r="DA1" s="5"/>
+      <c r="DB1" s="5"/>
+      <c r="DC1" s="5"/>
+      <c r="DD1" s="5"/>
+      <c r="DE1" s="5"/>
+      <c r="DF1" s="5"/>
+      <c r="DG1" s="5"/>
+      <c r="DH1" s="5"/>
+      <c r="DI1" s="5"/>
+      <c r="DJ1" s="5"/>
+      <c r="DK1" s="5"/>
+      <c r="DL1" s="5"/>
+      <c r="DM1" s="5"/>
+      <c r="DN1" s="5"/>
+      <c r="DO1" s="5"/>
+      <c r="DP1" s="5"/>
+      <c r="DQ1" s="5"/>
+      <c r="DR1" s="5"/>
+      <c r="DS1" s="5"/>
+      <c r="DT1" s="5"/>
+      <c r="DU1" s="5"/>
+      <c r="DV1" s="5"/>
+      <c r="DW1" s="5"/>
+      <c r="DX1" s="5"/>
+      <c r="DY1" s="5"/>
+      <c r="DZ1" s="5"/>
+      <c r="EA1" s="5"/>
+      <c r="EB1" s="5"/>
+      <c r="EC1" s="5"/>
+      <c r="ED1" s="5"/>
+      <c r="EE1" s="5"/>
+      <c r="EF1" s="5"/>
+      <c r="EG1" s="5"/>
+      <c r="EH1" s="5"/>
+      <c r="EI1" s="5"/>
+      <c r="EJ1" s="5"/>
+      <c r="EK1" s="5"/>
+      <c r="EL1" s="5"/>
+      <c r="EM1" s="5"/>
+      <c r="EN1" s="5"/>
+      <c r="EO1" s="5"/>
+      <c r="EP1" s="5"/>
+      <c r="EQ1" s="5"/>
+      <c r="ER1" s="5"/>
+      <c r="ES1" s="5"/>
+      <c r="ET1" s="5"/>
+      <c r="EU1" s="5"/>
+      <c r="EV1" s="5"/>
+      <c r="EW1" s="5"/>
+      <c r="EX1" s="5"/>
+      <c r="EY1" s="5"/>
+      <c r="EZ1" s="5"/>
+      <c r="FA1" s="5"/>
+      <c r="FB1" s="5"/>
+      <c r="FC1" s="5"/>
+      <c r="FD1" s="5"/>
+      <c r="FE1" s="5"/>
+      <c r="FF1" s="5"/>
+      <c r="FG1" s="5"/>
+      <c r="FH1" s="5"/>
+      <c r="FI1" s="5"/>
+      <c r="FJ1" s="5"/>
+      <c r="FK1" s="5"/>
+      <c r="FL1" s="5"/>
+      <c r="FM1" s="5"/>
+      <c r="FN1" s="5"/>
+      <c r="FO1" s="5"/>
+      <c r="FP1" s="5"/>
+      <c r="FQ1" s="5"/>
+      <c r="FR1" s="5"/>
+      <c r="FS1" s="5"/>
+      <c r="FT1" s="5"/>
+      <c r="FU1" s="5"/>
+      <c r="FV1" s="5"/>
+      <c r="FW1" s="5"/>
+      <c r="FX1" s="5"/>
+      <c r="FY1" s="5"/>
+      <c r="FZ1" s="5"/>
+      <c r="GA1" s="5"/>
+      <c r="GB1" s="5"/>
+      <c r="GC1" s="5"/>
+      <c r="GD1" s="5"/>
+      <c r="GE1" s="5"/>
+      <c r="GF1" s="5"/>
+      <c r="GG1" s="5"/>
+      <c r="GH1" s="5"/>
+      <c r="GI1" s="5"/>
+      <c r="GJ1" s="5"/>
+      <c r="GK1" s="5"/>
+      <c r="GL1" s="5"/>
+      <c r="GM1" s="5"/>
+      <c r="GN1" s="5"/>
+      <c r="GO1" s="5"/>
+      <c r="GP1" s="5"/>
+      <c r="GQ1" s="5"/>
+      <c r="GR1" s="5"/>
+      <c r="GS1" s="5"/>
+      <c r="GT1" s="5"/>
+      <c r="GU1" s="5"/>
+      <c r="GV1" s="5"/>
+      <c r="GW1" s="5"/>
+      <c r="GX1" s="5"/>
+      <c r="GY1" s="5"/>
+      <c r="GZ1" s="5"/>
+      <c r="HA1" s="5"/>
+      <c r="HB1" s="5"/>
+      <c r="HC1" s="5"/>
+      <c r="HD1" s="5"/>
+      <c r="HE1" s="5"/>
+      <c r="HF1" s="5"/>
+      <c r="HG1" s="5"/>
+      <c r="HH1" s="5"/>
+      <c r="HI1" s="5"/>
+      <c r="HJ1" s="5"/>
+      <c r="HK1" s="5"/>
+      <c r="HL1" s="5"/>
+      <c r="HM1" s="5"/>
+      <c r="HN1" s="5"/>
+      <c r="HO1" s="5"/>
+      <c r="HP1" s="5"/>
+      <c r="HQ1" s="5"/>
+      <c r="HR1" s="5"/>
+      <c r="HS1" s="5"/>
+      <c r="HT1" s="5"/>
+      <c r="HU1" s="5"/>
+      <c r="HV1" s="5"/>
+      <c r="HW1" s="5"/>
+      <c r="HX1" s="5"/>
+      <c r="HY1" s="5"/>
+      <c r="HZ1" s="5"/>
+      <c r="IA1" s="5"/>
+      <c r="IB1" s="5"/>
+      <c r="IC1" s="5"/>
+      <c r="ID1" s="5"/>
+      <c r="IE1" s="5"/>
+      <c r="IF1" s="5"/>
+      <c r="IG1" s="5"/>
+      <c r="IH1" s="5"/>
+      <c r="II1" s="5"/>
+      <c r="IJ1" s="5"/>
+      <c r="IK1" s="5"/>
+      <c r="IL1" s="5"/>
+      <c r="IM1" s="5"/>
+      <c r="IN1" s="5"/>
+      <c r="IO1" s="5"/>
+      <c r="IP1" s="5"/>
+      <c r="IQ1" s="5"/>
+      <c r="IR1" s="5"/>
+      <c r="IS1" s="5"/>
+      <c r="IT1" s="5"/>
+    </row>
+    <row r="2" spans="1:255" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:255" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:255" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:255" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="A6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="17"/>
+      <c r="BA6" s="17"/>
+      <c r="BB6" s="17"/>
+      <c r="BC6" s="17"/>
+      <c r="BD6" s="17"/>
+      <c r="BE6" s="17"/>
+      <c r="BF6" s="17"/>
+      <c r="BG6" s="17"/>
+      <c r="BH6" s="17"/>
+      <c r="BI6" s="17"/>
+      <c r="BJ6" s="17"/>
+      <c r="BK6" s="17"/>
+      <c r="BL6" s="17"/>
+      <c r="BM6" s="17"/>
+      <c r="BN6" s="17"/>
+      <c r="BO6" s="17"/>
+      <c r="BP6" s="17"/>
+      <c r="BQ6" s="17"/>
+      <c r="BR6" s="17"/>
+      <c r="BS6" s="17"/>
+      <c r="BT6" s="17"/>
+      <c r="BU6" s="17"/>
+      <c r="BV6" s="17"/>
+      <c r="BW6" s="17"/>
+      <c r="BX6" s="17"/>
+      <c r="BY6" s="17"/>
+      <c r="BZ6" s="17"/>
+      <c r="CA6" s="17"/>
+      <c r="CB6" s="17"/>
+      <c r="CC6" s="17"/>
+      <c r="CD6" s="17"/>
+      <c r="CE6" s="17"/>
+      <c r="CF6" s="17"/>
+      <c r="CG6" s="17"/>
+      <c r="CH6" s="17"/>
+      <c r="CI6" s="17"/>
+      <c r="CJ6" s="17"/>
+      <c r="CK6" s="17"/>
+      <c r="CL6" s="17"/>
+      <c r="CM6" s="17"/>
+      <c r="CN6" s="17"/>
+      <c r="CO6" s="17"/>
+      <c r="CP6" s="17"/>
+      <c r="CQ6" s="17"/>
+      <c r="CR6" s="17"/>
+      <c r="CS6" s="17"/>
+      <c r="CT6" s="17"/>
+      <c r="CU6" s="17"/>
+      <c r="CV6" s="17"/>
+      <c r="CW6" s="17"/>
+      <c r="CX6" s="17"/>
+      <c r="CY6" s="17"/>
+      <c r="CZ6" s="17"/>
+      <c r="DA6" s="17"/>
+      <c r="DB6" s="17"/>
+      <c r="DC6" s="17"/>
+      <c r="DD6" s="17"/>
+      <c r="DE6" s="17"/>
+      <c r="DF6" s="17"/>
+      <c r="DG6" s="17"/>
+      <c r="DH6" s="17"/>
+      <c r="DI6" s="17"/>
+      <c r="DJ6" s="17"/>
+      <c r="DK6" s="17"/>
+      <c r="DL6" s="17"/>
+      <c r="DM6" s="17"/>
+      <c r="DN6" s="17"/>
+      <c r="DO6" s="17"/>
+      <c r="DP6" s="17"/>
+      <c r="DQ6" s="17"/>
+      <c r="DR6" s="17"/>
+      <c r="DS6" s="17"/>
+      <c r="DT6" s="17"/>
+      <c r="DU6" s="17"/>
+      <c r="DV6" s="17"/>
+      <c r="DW6" s="17"/>
+      <c r="DX6" s="17"/>
+      <c r="DY6" s="17"/>
+      <c r="DZ6" s="17"/>
+      <c r="EA6" s="17"/>
+      <c r="EB6" s="17"/>
+      <c r="EC6" s="17"/>
+      <c r="ED6" s="17"/>
+      <c r="EE6" s="17"/>
+      <c r="EF6" s="17"/>
+      <c r="EG6" s="17"/>
+      <c r="EH6" s="17"/>
+      <c r="EI6" s="17"/>
+      <c r="EJ6" s="17"/>
+      <c r="EK6" s="17"/>
+      <c r="EL6" s="17"/>
+      <c r="EM6" s="17"/>
+      <c r="EN6" s="17"/>
+      <c r="EO6" s="17"/>
+      <c r="EP6" s="17"/>
+      <c r="EQ6" s="17"/>
+      <c r="ER6" s="17"/>
+      <c r="ES6" s="17"/>
+      <c r="ET6" s="17"/>
+      <c r="EU6" s="17"/>
+      <c r="EV6" s="17"/>
+      <c r="EW6" s="17"/>
+      <c r="EX6" s="17"/>
+      <c r="EY6" s="17"/>
+      <c r="EZ6" s="17"/>
+      <c r="FA6" s="17"/>
+      <c r="FB6" s="17"/>
+      <c r="FC6" s="17"/>
+      <c r="FD6" s="17"/>
+      <c r="FE6" s="17"/>
+      <c r="FF6" s="17"/>
+      <c r="FG6" s="17"/>
+      <c r="FH6" s="17"/>
+      <c r="FI6" s="17"/>
+      <c r="FJ6" s="17"/>
+      <c r="FK6" s="17"/>
+      <c r="FL6" s="17"/>
+      <c r="FM6" s="17"/>
+      <c r="FN6" s="17"/>
+      <c r="FO6" s="17"/>
+      <c r="FP6" s="17"/>
+      <c r="FQ6" s="17"/>
+      <c r="FR6" s="17"/>
+      <c r="FS6" s="17"/>
+      <c r="FT6" s="17"/>
+      <c r="FU6" s="17"/>
+      <c r="FV6" s="17"/>
+      <c r="FW6" s="17"/>
+      <c r="FX6" s="17"/>
+      <c r="FY6" s="17"/>
+      <c r="FZ6" s="17"/>
+      <c r="GA6" s="17"/>
+      <c r="GB6" s="17"/>
+      <c r="GC6" s="17"/>
+      <c r="GD6" s="17"/>
+      <c r="GE6" s="17"/>
+      <c r="GF6" s="17"/>
+      <c r="GG6" s="17"/>
+      <c r="GH6" s="17"/>
+      <c r="GI6" s="17"/>
+      <c r="GJ6" s="17"/>
+      <c r="GK6" s="17"/>
+      <c r="GL6" s="17"/>
+      <c r="GM6" s="17"/>
+      <c r="GN6" s="17"/>
+      <c r="GO6" s="17"/>
+      <c r="GP6" s="17"/>
+      <c r="GQ6" s="17"/>
+      <c r="GR6" s="17"/>
+      <c r="GS6" s="17"/>
+      <c r="GT6" s="17"/>
+      <c r="GU6" s="17"/>
+      <c r="GV6" s="17"/>
+      <c r="GW6" s="17"/>
+      <c r="GX6" s="17"/>
+      <c r="GY6" s="17"/>
+      <c r="GZ6" s="17"/>
+      <c r="HA6" s="17"/>
+      <c r="HB6" s="17"/>
+      <c r="HC6" s="17"/>
+      <c r="HD6" s="17"/>
+      <c r="HE6" s="17"/>
+      <c r="HF6" s="17"/>
+      <c r="HG6" s="17"/>
+      <c r="HH6" s="17"/>
+      <c r="HI6" s="17"/>
+      <c r="HJ6" s="17"/>
+      <c r="HK6" s="17"/>
+      <c r="HL6" s="17"/>
+      <c r="HM6" s="17"/>
+      <c r="HN6" s="17"/>
+      <c r="HO6" s="17"/>
+      <c r="HP6" s="17"/>
+      <c r="HQ6" s="17"/>
+      <c r="HR6" s="17"/>
+      <c r="HS6" s="17"/>
+      <c r="HT6" s="17"/>
+      <c r="HU6" s="17"/>
+      <c r="HV6" s="17"/>
+      <c r="HW6" s="17"/>
+      <c r="HX6" s="17"/>
+      <c r="HY6" s="17"/>
+      <c r="HZ6" s="17"/>
+      <c r="IA6" s="17"/>
+      <c r="IB6" s="17"/>
+      <c r="IC6" s="17"/>
+      <c r="ID6" s="17"/>
+      <c r="IE6" s="17"/>
+      <c r="IF6" s="17"/>
+      <c r="IG6" s="17"/>
+      <c r="IH6" s="17"/>
+      <c r="II6" s="17"/>
+      <c r="IJ6" s="17"/>
+      <c r="IK6" s="17"/>
+      <c r="IL6" s="17"/>
+      <c r="IM6" s="17"/>
+      <c r="IN6" s="17"/>
+      <c r="IO6" s="17"/>
+      <c r="IP6" s="17"/>
+      <c r="IQ6" s="17"/>
+      <c r="IR6" s="17"/>
+      <c r="IS6" s="17"/>
+      <c r="IT6" s="17"/>
+      <c r="IU6" s="17"/>
+    </row>
+    <row r="7" spans="1:255" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="17"/>
+      <c r="AP7" s="17"/>
+      <c r="AQ7" s="17"/>
+      <c r="AR7" s="17"/>
+      <c r="AS7" s="17"/>
+      <c r="AT7" s="17"/>
+      <c r="AU7" s="17"/>
+      <c r="AV7" s="17"/>
+      <c r="AW7" s="17"/>
+      <c r="AX7" s="17"/>
+      <c r="AY7" s="17"/>
+      <c r="AZ7" s="17"/>
+      <c r="BA7" s="17"/>
+      <c r="BB7" s="17"/>
+      <c r="BC7" s="17"/>
+      <c r="BD7" s="17"/>
+      <c r="BE7" s="17"/>
+      <c r="BF7" s="17"/>
+      <c r="BG7" s="17"/>
+      <c r="BH7" s="17"/>
+      <c r="BI7" s="17"/>
+      <c r="BJ7" s="17"/>
+      <c r="BK7" s="17"/>
+      <c r="BL7" s="17"/>
+      <c r="BM7" s="17"/>
+      <c r="BN7" s="17"/>
+      <c r="BO7" s="17"/>
+      <c r="BP7" s="17"/>
+      <c r="BQ7" s="17"/>
+      <c r="BR7" s="17"/>
+      <c r="BS7" s="17"/>
+      <c r="BT7" s="17"/>
+      <c r="BU7" s="17"/>
+      <c r="BV7" s="17"/>
+      <c r="BW7" s="17"/>
+      <c r="BX7" s="17"/>
+      <c r="BY7" s="17"/>
+      <c r="BZ7" s="17"/>
+      <c r="CA7" s="17"/>
+      <c r="CB7" s="17"/>
+      <c r="CC7" s="17"/>
+      <c r="CD7" s="17"/>
+      <c r="CE7" s="17"/>
+      <c r="CF7" s="17"/>
+      <c r="CG7" s="17"/>
+      <c r="CH7" s="17"/>
+      <c r="CI7" s="17"/>
+      <c r="CJ7" s="17"/>
+      <c r="CK7" s="17"/>
+      <c r="CL7" s="17"/>
+      <c r="CM7" s="17"/>
+      <c r="CN7" s="17"/>
+      <c r="CO7" s="17"/>
+      <c r="CP7" s="17"/>
+      <c r="CQ7" s="17"/>
+      <c r="CR7" s="17"/>
+      <c r="CS7" s="17"/>
+      <c r="CT7" s="17"/>
+      <c r="CU7" s="17"/>
+      <c r="CV7" s="17"/>
+      <c r="CW7" s="17"/>
+      <c r="CX7" s="17"/>
+      <c r="CY7" s="17"/>
+      <c r="CZ7" s="17"/>
+      <c r="DA7" s="17"/>
+      <c r="DB7" s="17"/>
+      <c r="DC7" s="17"/>
+      <c r="DD7" s="17"/>
+      <c r="DE7" s="17"/>
+      <c r="DF7" s="17"/>
+      <c r="DG7" s="17"/>
+      <c r="DH7" s="17"/>
+      <c r="DI7" s="17"/>
+      <c r="DJ7" s="17"/>
+      <c r="DK7" s="17"/>
+      <c r="DL7" s="17"/>
+      <c r="DM7" s="17"/>
+      <c r="DN7" s="17"/>
+      <c r="DO7" s="17"/>
+      <c r="DP7" s="17"/>
+      <c r="DQ7" s="17"/>
+      <c r="DR7" s="17"/>
+      <c r="DS7" s="17"/>
+      <c r="DT7" s="17"/>
+      <c r="DU7" s="17"/>
+      <c r="DV7" s="17"/>
+      <c r="DW7" s="17"/>
+      <c r="DX7" s="17"/>
+      <c r="DY7" s="17"/>
+      <c r="DZ7" s="17"/>
+      <c r="EA7" s="17"/>
+      <c r="EB7" s="17"/>
+      <c r="EC7" s="17"/>
+      <c r="ED7" s="17"/>
+      <c r="EE7" s="17"/>
+      <c r="EF7" s="17"/>
+      <c r="EG7" s="17"/>
+      <c r="EH7" s="17"/>
+      <c r="EI7" s="17"/>
+      <c r="EJ7" s="17"/>
+      <c r="EK7" s="17"/>
+      <c r="EL7" s="17"/>
+      <c r="EM7" s="17"/>
+      <c r="EN7" s="17"/>
+      <c r="EO7" s="17"/>
+      <c r="EP7" s="17"/>
+      <c r="EQ7" s="17"/>
+      <c r="ER7" s="17"/>
+      <c r="ES7" s="17"/>
+      <c r="ET7" s="17"/>
+      <c r="EU7" s="17"/>
+      <c r="EV7" s="17"/>
+      <c r="EW7" s="17"/>
+      <c r="EX7" s="17"/>
+      <c r="EY7" s="17"/>
+      <c r="EZ7" s="17"/>
+      <c r="FA7" s="17"/>
+      <c r="FB7" s="17"/>
+      <c r="FC7" s="17"/>
+      <c r="FD7" s="17"/>
+      <c r="FE7" s="17"/>
+      <c r="FF7" s="17"/>
+      <c r="FG7" s="17"/>
+      <c r="FH7" s="17"/>
+      <c r="FI7" s="17"/>
+      <c r="FJ7" s="17"/>
+      <c r="FK7" s="17"/>
+      <c r="FL7" s="17"/>
+      <c r="FM7" s="17"/>
+      <c r="FN7" s="17"/>
+      <c r="FO7" s="17"/>
+      <c r="FP7" s="17"/>
+      <c r="FQ7" s="17"/>
+      <c r="FR7" s="17"/>
+      <c r="FS7" s="17"/>
+      <c r="FT7" s="17"/>
+      <c r="FU7" s="17"/>
+      <c r="FV7" s="17"/>
+      <c r="FW7" s="17"/>
+      <c r="FX7" s="17"/>
+      <c r="FY7" s="17"/>
+      <c r="FZ7" s="17"/>
+      <c r="GA7" s="17"/>
+      <c r="GB7" s="17"/>
+      <c r="GC7" s="17"/>
+      <c r="GD7" s="17"/>
+      <c r="GE7" s="17"/>
+      <c r="GF7" s="17"/>
+      <c r="GG7" s="17"/>
+      <c r="GH7" s="17"/>
+      <c r="GI7" s="17"/>
+      <c r="GJ7" s="17"/>
+      <c r="GK7" s="17"/>
+      <c r="GL7" s="17"/>
+      <c r="GM7" s="17"/>
+      <c r="GN7" s="17"/>
+      <c r="GO7" s="17"/>
+      <c r="GP7" s="17"/>
+      <c r="GQ7" s="17"/>
+      <c r="GR7" s="17"/>
+      <c r="GS7" s="17"/>
+      <c r="GT7" s="17"/>
+      <c r="GU7" s="17"/>
+      <c r="GV7" s="17"/>
+      <c r="GW7" s="17"/>
+      <c r="GX7" s="17"/>
+      <c r="GY7" s="17"/>
+      <c r="GZ7" s="17"/>
+      <c r="HA7" s="17"/>
+      <c r="HB7" s="17"/>
+      <c r="HC7" s="17"/>
+      <c r="HD7" s="17"/>
+      <c r="HE7" s="17"/>
+      <c r="HF7" s="17"/>
+      <c r="HG7" s="17"/>
+      <c r="HH7" s="17"/>
+      <c r="HI7" s="17"/>
+      <c r="HJ7" s="17"/>
+      <c r="HK7" s="17"/>
+      <c r="HL7" s="17"/>
+      <c r="HM7" s="17"/>
+      <c r="HN7" s="17"/>
+      <c r="HO7" s="17"/>
+      <c r="HP7" s="17"/>
+      <c r="HQ7" s="17"/>
+      <c r="HR7" s="17"/>
+      <c r="HS7" s="17"/>
+      <c r="HT7" s="17"/>
+      <c r="HU7" s="17"/>
+      <c r="HV7" s="17"/>
+      <c r="HW7" s="17"/>
+      <c r="HX7" s="17"/>
+      <c r="HY7" s="17"/>
+      <c r="HZ7" s="17"/>
+      <c r="IA7" s="17"/>
+      <c r="IB7" s="17"/>
+      <c r="IC7" s="17"/>
+      <c r="ID7" s="17"/>
+      <c r="IE7" s="17"/>
+      <c r="IF7" s="17"/>
+      <c r="IG7" s="17"/>
+      <c r="IH7" s="17"/>
+      <c r="II7" s="17"/>
+      <c r="IJ7" s="17"/>
+      <c r="IK7" s="17"/>
+      <c r="IL7" s="17"/>
+      <c r="IM7" s="17"/>
+      <c r="IN7" s="17"/>
+      <c r="IO7" s="17"/>
+      <c r="IP7" s="17"/>
+      <c r="IQ7" s="17"/>
+      <c r="IR7" s="17"/>
+      <c r="IS7" s="17"/>
+      <c r="IT7" s="17"/>
+      <c r="IU7" s="17"/>
+    </row>
+    <row r="8" spans="1:255" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="17"/>
+      <c r="AO8" s="17"/>
+      <c r="AP8" s="17"/>
+      <c r="AQ8" s="17"/>
+      <c r="AR8" s="17"/>
+      <c r="AS8" s="17"/>
+      <c r="AT8" s="17"/>
+      <c r="AU8" s="17"/>
+      <c r="AV8" s="17"/>
+      <c r="AW8" s="17"/>
+      <c r="AX8" s="17"/>
+      <c r="AY8" s="17"/>
+      <c r="AZ8" s="17"/>
+      <c r="BA8" s="17"/>
+      <c r="BB8" s="17"/>
+      <c r="BC8" s="17"/>
+      <c r="BD8" s="17"/>
+      <c r="BE8" s="17"/>
+      <c r="BF8" s="17"/>
+      <c r="BG8" s="17"/>
+      <c r="BH8" s="17"/>
+      <c r="BI8" s="17"/>
+      <c r="BJ8" s="17"/>
+      <c r="BK8" s="17"/>
+      <c r="BL8" s="17"/>
+      <c r="BM8" s="17"/>
+      <c r="BN8" s="17"/>
+      <c r="BO8" s="17"/>
+      <c r="BP8" s="17"/>
+      <c r="BQ8" s="17"/>
+      <c r="BR8" s="17"/>
+      <c r="BS8" s="17"/>
+      <c r="BT8" s="17"/>
+      <c r="BU8" s="17"/>
+      <c r="BV8" s="17"/>
+      <c r="BW8" s="17"/>
+      <c r="BX8" s="17"/>
+      <c r="BY8" s="17"/>
+      <c r="BZ8" s="17"/>
+      <c r="CA8" s="17"/>
+      <c r="CB8" s="17"/>
+      <c r="CC8" s="17"/>
+      <c r="CD8" s="17"/>
+      <c r="CE8" s="17"/>
+      <c r="CF8" s="17"/>
+      <c r="CG8" s="17"/>
+      <c r="CH8" s="17"/>
+      <c r="CI8" s="17"/>
+      <c r="CJ8" s="17"/>
+      <c r="CK8" s="17"/>
+      <c r="CL8" s="17"/>
+      <c r="CM8" s="17"/>
+      <c r="CN8" s="17"/>
+      <c r="CO8" s="17"/>
+      <c r="CP8" s="17"/>
+      <c r="CQ8" s="17"/>
+      <c r="CR8" s="17"/>
+      <c r="CS8" s="17"/>
+      <c r="CT8" s="17"/>
+      <c r="CU8" s="17"/>
+      <c r="CV8" s="17"/>
+      <c r="CW8" s="17"/>
+      <c r="CX8" s="17"/>
+      <c r="CY8" s="17"/>
+      <c r="CZ8" s="17"/>
+      <c r="DA8" s="17"/>
+      <c r="DB8" s="17"/>
+      <c r="DC8" s="17"/>
+      <c r="DD8" s="17"/>
+      <c r="DE8" s="17"/>
+      <c r="DF8" s="17"/>
+      <c r="DG8" s="17"/>
+      <c r="DH8" s="17"/>
+      <c r="DI8" s="17"/>
+      <c r="DJ8" s="17"/>
+      <c r="DK8" s="17"/>
+      <c r="DL8" s="17"/>
+      <c r="DM8" s="17"/>
+      <c r="DN8" s="17"/>
+      <c r="DO8" s="17"/>
+      <c r="DP8" s="17"/>
+      <c r="DQ8" s="17"/>
+      <c r="DR8" s="17"/>
+      <c r="DS8" s="17"/>
+      <c r="DT8" s="17"/>
+      <c r="DU8" s="17"/>
+      <c r="DV8" s="17"/>
+      <c r="DW8" s="17"/>
+      <c r="DX8" s="17"/>
+      <c r="DY8" s="17"/>
+      <c r="DZ8" s="17"/>
+      <c r="EA8" s="17"/>
+      <c r="EB8" s="17"/>
+      <c r="EC8" s="17"/>
+      <c r="ED8" s="17"/>
+      <c r="EE8" s="17"/>
+      <c r="EF8" s="17"/>
+      <c r="EG8" s="17"/>
+      <c r="EH8" s="17"/>
+      <c r="EI8" s="17"/>
+      <c r="EJ8" s="17"/>
+      <c r="EK8" s="17"/>
+      <c r="EL8" s="17"/>
+      <c r="EM8" s="17"/>
+      <c r="EN8" s="17"/>
+      <c r="EO8" s="17"/>
+      <c r="EP8" s="17"/>
+      <c r="EQ8" s="17"/>
+      <c r="ER8" s="17"/>
+      <c r="ES8" s="17"/>
+      <c r="ET8" s="17"/>
+      <c r="EU8" s="17"/>
+      <c r="EV8" s="17"/>
+      <c r="EW8" s="17"/>
+      <c r="EX8" s="17"/>
+      <c r="EY8" s="17"/>
+      <c r="EZ8" s="17"/>
+      <c r="FA8" s="17"/>
+      <c r="FB8" s="17"/>
+      <c r="FC8" s="17"/>
+      <c r="FD8" s="17"/>
+      <c r="FE8" s="17"/>
+      <c r="FF8" s="17"/>
+      <c r="FG8" s="17"/>
+      <c r="FH8" s="17"/>
+      <c r="FI8" s="17"/>
+      <c r="FJ8" s="17"/>
+      <c r="FK8" s="17"/>
+      <c r="FL8" s="17"/>
+      <c r="FM8" s="17"/>
+      <c r="FN8" s="17"/>
+      <c r="FO8" s="17"/>
+      <c r="FP8" s="17"/>
+      <c r="FQ8" s="17"/>
+      <c r="FR8" s="17"/>
+      <c r="FS8" s="17"/>
+      <c r="FT8" s="17"/>
+      <c r="FU8" s="17"/>
+      <c r="FV8" s="17"/>
+      <c r="FW8" s="17"/>
+      <c r="FX8" s="17"/>
+      <c r="FY8" s="17"/>
+      <c r="FZ8" s="17"/>
+      <c r="GA8" s="17"/>
+      <c r="GB8" s="17"/>
+      <c r="GC8" s="17"/>
+      <c r="GD8" s="17"/>
+      <c r="GE8" s="17"/>
+      <c r="GF8" s="17"/>
+      <c r="GG8" s="17"/>
+      <c r="GH8" s="17"/>
+      <c r="GI8" s="17"/>
+      <c r="GJ8" s="17"/>
+      <c r="GK8" s="17"/>
+      <c r="GL8" s="17"/>
+      <c r="GM8" s="17"/>
+      <c r="GN8" s="17"/>
+      <c r="GO8" s="17"/>
+      <c r="GP8" s="17"/>
+      <c r="GQ8" s="17"/>
+      <c r="GR8" s="17"/>
+      <c r="GS8" s="17"/>
+      <c r="GT8" s="17"/>
+      <c r="GU8" s="17"/>
+      <c r="GV8" s="17"/>
+      <c r="GW8" s="17"/>
+      <c r="GX8" s="17"/>
+      <c r="GY8" s="17"/>
+      <c r="GZ8" s="17"/>
+      <c r="HA8" s="17"/>
+      <c r="HB8" s="17"/>
+      <c r="HC8" s="17"/>
+      <c r="HD8" s="17"/>
+      <c r="HE8" s="17"/>
+      <c r="HF8" s="17"/>
+      <c r="HG8" s="17"/>
+      <c r="HH8" s="17"/>
+      <c r="HI8" s="17"/>
+      <c r="HJ8" s="17"/>
+      <c r="HK8" s="17"/>
+      <c r="HL8" s="17"/>
+      <c r="HM8" s="17"/>
+      <c r="HN8" s="17"/>
+      <c r="HO8" s="17"/>
+      <c r="HP8" s="17"/>
+      <c r="HQ8" s="17"/>
+      <c r="HR8" s="17"/>
+      <c r="HS8" s="17"/>
+      <c r="HT8" s="17"/>
+      <c r="HU8" s="17"/>
+      <c r="HV8" s="17"/>
+      <c r="HW8" s="17"/>
+      <c r="HX8" s="17"/>
+      <c r="HY8" s="17"/>
+      <c r="HZ8" s="17"/>
+      <c r="IA8" s="17"/>
+      <c r="IB8" s="17"/>
+      <c r="IC8" s="17"/>
+      <c r="ID8" s="17"/>
+      <c r="IE8" s="17"/>
+      <c r="IF8" s="17"/>
+      <c r="IG8" s="17"/>
+      <c r="IH8" s="17"/>
+      <c r="II8" s="17"/>
+      <c r="IJ8" s="17"/>
+      <c r="IK8" s="17"/>
+      <c r="IL8" s="17"/>
+      <c r="IM8" s="17"/>
+      <c r="IN8" s="17"/>
+      <c r="IO8" s="17"/>
+      <c r="IP8" s="17"/>
+      <c r="IQ8" s="17"/>
+      <c r="IR8" s="17"/>
+      <c r="IS8" s="17"/>
+      <c r="IT8" s="17"/>
+      <c r="IU8" s="17"/>
+    </row>
+    <row r="9" spans="1:255" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="17"/>
+      <c r="AQ9" s="17"/>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="17"/>
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="17"/>
+      <c r="AW9" s="17"/>
+      <c r="AX9" s="17"/>
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="17"/>
+      <c r="BA9" s="17"/>
+      <c r="BB9" s="17"/>
+      <c r="BC9" s="17"/>
+      <c r="BD9" s="17"/>
+      <c r="BE9" s="17"/>
+      <c r="BF9" s="17"/>
+      <c r="BG9" s="17"/>
+      <c r="BH9" s="17"/>
+      <c r="BI9" s="17"/>
+      <c r="BJ9" s="17"/>
+      <c r="BK9" s="17"/>
+      <c r="BL9" s="17"/>
+      <c r="BM9" s="17"/>
+      <c r="BN9" s="17"/>
+      <c r="BO9" s="17"/>
+      <c r="BP9" s="17"/>
+      <c r="BQ9" s="17"/>
+      <c r="BR9" s="17"/>
+      <c r="BS9" s="17"/>
+      <c r="BT9" s="17"/>
+      <c r="BU9" s="17"/>
+      <c r="BV9" s="17"/>
+      <c r="BW9" s="17"/>
+      <c r="BX9" s="17"/>
+      <c r="BY9" s="17"/>
+      <c r="BZ9" s="17"/>
+      <c r="CA9" s="17"/>
+      <c r="CB9" s="17"/>
+      <c r="CC9" s="17"/>
+      <c r="CD9" s="17"/>
+      <c r="CE9" s="17"/>
+      <c r="CF9" s="17"/>
+      <c r="CG9" s="17"/>
+      <c r="CH9" s="17"/>
+      <c r="CI9" s="17"/>
+      <c r="CJ9" s="17"/>
+      <c r="CK9" s="17"/>
+      <c r="CL9" s="17"/>
+      <c r="CM9" s="17"/>
+      <c r="CN9" s="17"/>
+      <c r="CO9" s="17"/>
+      <c r="CP9" s="17"/>
+      <c r="CQ9" s="17"/>
+      <c r="CR9" s="17"/>
+      <c r="CS9" s="17"/>
+      <c r="CT9" s="17"/>
+      <c r="CU9" s="17"/>
+      <c r="CV9" s="17"/>
+      <c r="CW9" s="17"/>
+      <c r="CX9" s="17"/>
+      <c r="CY9" s="17"/>
+      <c r="CZ9" s="17"/>
+      <c r="DA9" s="17"/>
+      <c r="DB9" s="17"/>
+      <c r="DC9" s="17"/>
+      <c r="DD9" s="17"/>
+      <c r="DE9" s="17"/>
+      <c r="DF9" s="17"/>
+      <c r="DG9" s="17"/>
+      <c r="DH9" s="17"/>
+      <c r="DI9" s="17"/>
+      <c r="DJ9" s="17"/>
+      <c r="DK9" s="17"/>
+      <c r="DL9" s="17"/>
+      <c r="DM9" s="17"/>
+      <c r="DN9" s="17"/>
+      <c r="DO9" s="17"/>
+      <c r="DP9" s="17"/>
+      <c r="DQ9" s="17"/>
+      <c r="DR9" s="17"/>
+      <c r="DS9" s="17"/>
+      <c r="DT9" s="17"/>
+      <c r="DU9" s="17"/>
+      <c r="DV9" s="17"/>
+      <c r="DW9" s="17"/>
+      <c r="DX9" s="17"/>
+      <c r="DY9" s="17"/>
+      <c r="DZ9" s="17"/>
+      <c r="EA9" s="17"/>
+      <c r="EB9" s="17"/>
+      <c r="EC9" s="17"/>
+      <c r="ED9" s="17"/>
+      <c r="EE9" s="17"/>
+      <c r="EF9" s="17"/>
+      <c r="EG9" s="17"/>
+      <c r="EH9" s="17"/>
+      <c r="EI9" s="17"/>
+      <c r="EJ9" s="17"/>
+      <c r="EK9" s="17"/>
+      <c r="EL9" s="17"/>
+      <c r="EM9" s="17"/>
+      <c r="EN9" s="17"/>
+      <c r="EO9" s="17"/>
+      <c r="EP9" s="17"/>
+      <c r="EQ9" s="17"/>
+      <c r="ER9" s="17"/>
+      <c r="ES9" s="17"/>
+      <c r="ET9" s="17"/>
+      <c r="EU9" s="17"/>
+      <c r="EV9" s="17"/>
+      <c r="EW9" s="17"/>
+      <c r="EX9" s="17"/>
+      <c r="EY9" s="17"/>
+      <c r="EZ9" s="17"/>
+      <c r="FA9" s="17"/>
+      <c r="FB9" s="17"/>
+      <c r="FC9" s="17"/>
+      <c r="FD9" s="17"/>
+      <c r="FE9" s="17"/>
+      <c r="FF9" s="17"/>
+      <c r="FG9" s="17"/>
+      <c r="FH9" s="17"/>
+      <c r="FI9" s="17"/>
+      <c r="FJ9" s="17"/>
+      <c r="FK9" s="17"/>
+      <c r="FL9" s="17"/>
+      <c r="FM9" s="17"/>
+      <c r="FN9" s="17"/>
+      <c r="FO9" s="17"/>
+      <c r="FP9" s="17"/>
+      <c r="FQ9" s="17"/>
+      <c r="FR9" s="17"/>
+      <c r="FS9" s="17"/>
+      <c r="FT9" s="17"/>
+      <c r="FU9" s="17"/>
+      <c r="FV9" s="17"/>
+      <c r="FW9" s="17"/>
+      <c r="FX9" s="17"/>
+      <c r="FY9" s="17"/>
+      <c r="FZ9" s="17"/>
+      <c r="GA9" s="17"/>
+      <c r="GB9" s="17"/>
+      <c r="GC9" s="17"/>
+      <c r="GD9" s="17"/>
+      <c r="GE9" s="17"/>
+      <c r="GF9" s="17"/>
+      <c r="GG9" s="17"/>
+      <c r="GH9" s="17"/>
+      <c r="GI9" s="17"/>
+      <c r="GJ9" s="17"/>
+      <c r="GK9" s="17"/>
+      <c r="GL9" s="17"/>
+      <c r="GM9" s="17"/>
+      <c r="GN9" s="17"/>
+      <c r="GO9" s="17"/>
+      <c r="GP9" s="17"/>
+      <c r="GQ9" s="17"/>
+      <c r="GR9" s="17"/>
+      <c r="GS9" s="17"/>
+      <c r="GT9" s="17"/>
+      <c r="GU9" s="17"/>
+      <c r="GV9" s="17"/>
+      <c r="GW9" s="17"/>
+      <c r="GX9" s="17"/>
+      <c r="GY9" s="17"/>
+      <c r="GZ9" s="17"/>
+      <c r="HA9" s="17"/>
+      <c r="HB9" s="17"/>
+      <c r="HC9" s="17"/>
+      <c r="HD9" s="17"/>
+      <c r="HE9" s="17"/>
+      <c r="HF9" s="17"/>
+      <c r="HG9" s="17"/>
+      <c r="HH9" s="17"/>
+      <c r="HI9" s="17"/>
+      <c r="HJ9" s="17"/>
+      <c r="HK9" s="17"/>
+      <c r="HL9" s="17"/>
+      <c r="HM9" s="17"/>
+      <c r="HN9" s="17"/>
+      <c r="HO9" s="17"/>
+      <c r="HP9" s="17"/>
+      <c r="HQ9" s="17"/>
+      <c r="HR9" s="17"/>
+      <c r="HS9" s="17"/>
+      <c r="HT9" s="17"/>
+      <c r="HU9" s="17"/>
+      <c r="HV9" s="17"/>
+      <c r="HW9" s="17"/>
+      <c r="HX9" s="17"/>
+      <c r="HY9" s="17"/>
+      <c r="HZ9" s="17"/>
+      <c r="IA9" s="17"/>
+      <c r="IB9" s="17"/>
+      <c r="IC9" s="17"/>
+      <c r="ID9" s="17"/>
+      <c r="IE9" s="17"/>
+      <c r="IF9" s="17"/>
+      <c r="IG9" s="17"/>
+      <c r="IH9" s="17"/>
+      <c r="II9" s="17"/>
+      <c r="IJ9" s="17"/>
+      <c r="IK9" s="17"/>
+      <c r="IL9" s="17"/>
+      <c r="IM9" s="17"/>
+      <c r="IN9" s="17"/>
+      <c r="IO9" s="17"/>
+      <c r="IP9" s="17"/>
+      <c r="IQ9" s="17"/>
+      <c r="IR9" s="17"/>
+      <c r="IS9" s="17"/>
+      <c r="IT9" s="17"/>
+      <c r="IU9" s="17"/>
+    </row>
+    <row r="10" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="5"/>
+      <c r="BC11" s="5"/>
+      <c r="BD11" s="5"/>
+      <c r="BE11" s="5"/>
+      <c r="BF11" s="5"/>
+      <c r="BG11" s="5"/>
+      <c r="BH11" s="5"/>
+      <c r="BI11" s="5"/>
+      <c r="BJ11" s="5"/>
+      <c r="BK11" s="5"/>
+      <c r="BL11" s="5"/>
+      <c r="BM11" s="5"/>
+      <c r="BN11" s="5"/>
+      <c r="BO11" s="5"/>
+      <c r="BP11" s="5"/>
+      <c r="BQ11" s="5"/>
+      <c r="BR11" s="5"/>
+      <c r="BS11" s="5"/>
+      <c r="BT11" s="5"/>
+      <c r="BU11" s="5"/>
+      <c r="BV11" s="5"/>
+      <c r="BW11" s="5"/>
+      <c r="BX11" s="5"/>
+      <c r="BY11" s="5"/>
+      <c r="BZ11" s="5"/>
+      <c r="CA11" s="5"/>
+      <c r="CB11" s="5"/>
+      <c r="CC11" s="5"/>
+      <c r="CD11" s="5"/>
+      <c r="CE11" s="5"/>
+      <c r="CF11" s="5"/>
+      <c r="CG11" s="5"/>
+      <c r="CH11" s="5"/>
+      <c r="CI11" s="5"/>
+      <c r="CJ11" s="5"/>
+      <c r="CK11" s="5"/>
+      <c r="CL11" s="5"/>
+      <c r="CM11" s="5"/>
+      <c r="CN11" s="5"/>
+      <c r="CO11" s="5"/>
+      <c r="CP11" s="5"/>
+      <c r="CQ11" s="5"/>
+      <c r="CR11" s="5"/>
+      <c r="CS11" s="5"/>
+      <c r="CT11" s="5"/>
+      <c r="CU11" s="5"/>
+      <c r="CV11" s="5"/>
+      <c r="CW11" s="5"/>
+      <c r="CX11" s="5"/>
+      <c r="CY11" s="5"/>
+      <c r="CZ11" s="5"/>
+      <c r="DA11" s="5"/>
+      <c r="DB11" s="5"/>
+      <c r="DC11" s="5"/>
+      <c r="DD11" s="5"/>
+      <c r="DE11" s="5"/>
+      <c r="DF11" s="5"/>
+      <c r="DG11" s="5"/>
+      <c r="DH11" s="5"/>
+      <c r="DI11" s="5"/>
+      <c r="DJ11" s="5"/>
+      <c r="DK11" s="5"/>
+      <c r="DL11" s="5"/>
+      <c r="DM11" s="5"/>
+      <c r="DN11" s="5"/>
+      <c r="DO11" s="5"/>
+      <c r="DP11" s="5"/>
+      <c r="DQ11" s="5"/>
+      <c r="DR11" s="5"/>
+      <c r="DS11" s="5"/>
+      <c r="DT11" s="5"/>
+      <c r="DU11" s="5"/>
+      <c r="DV11" s="5"/>
+      <c r="DW11" s="5"/>
+      <c r="DX11" s="5"/>
+      <c r="DY11" s="5"/>
+      <c r="DZ11" s="5"/>
+      <c r="EA11" s="5"/>
+      <c r="EB11" s="5"/>
+      <c r="EC11" s="5"/>
+      <c r="ED11" s="5"/>
+      <c r="EE11" s="5"/>
+      <c r="EF11" s="5"/>
+      <c r="EG11" s="5"/>
+      <c r="EH11" s="5"/>
+      <c r="EI11" s="5"/>
+      <c r="EJ11" s="5"/>
+      <c r="EK11" s="5"/>
+      <c r="EL11" s="5"/>
+      <c r="EM11" s="5"/>
+      <c r="EN11" s="5"/>
+      <c r="EO11" s="5"/>
+      <c r="EP11" s="5"/>
+      <c r="EQ11" s="5"/>
+      <c r="ER11" s="5"/>
+      <c r="ES11" s="5"/>
+      <c r="ET11" s="5"/>
+      <c r="EU11" s="5"/>
+      <c r="EV11" s="5"/>
+      <c r="EW11" s="5"/>
+      <c r="EX11" s="5"/>
+      <c r="EY11" s="5"/>
+      <c r="EZ11" s="5"/>
+      <c r="FA11" s="5"/>
+      <c r="FB11" s="5"/>
+      <c r="FC11" s="5"/>
+      <c r="FD11" s="5"/>
+      <c r="FE11" s="5"/>
+      <c r="FF11" s="5"/>
+      <c r="FG11" s="5"/>
+      <c r="FH11" s="5"/>
+      <c r="FI11" s="5"/>
+      <c r="FJ11" s="5"/>
+      <c r="FK11" s="5"/>
+      <c r="FL11" s="5"/>
+      <c r="FM11" s="5"/>
+      <c r="FN11" s="5"/>
+      <c r="FO11" s="5"/>
+      <c r="FP11" s="5"/>
+      <c r="FQ11" s="5"/>
+      <c r="FR11" s="5"/>
+      <c r="FS11" s="5"/>
+      <c r="FT11" s="5"/>
+      <c r="FU11" s="5"/>
+      <c r="FV11" s="5"/>
+      <c r="FW11" s="5"/>
+      <c r="FX11" s="5"/>
+      <c r="FY11" s="5"/>
+      <c r="FZ11" s="5"/>
+      <c r="GA11" s="5"/>
+      <c r="GB11" s="5"/>
+      <c r="GC11" s="5"/>
+      <c r="GD11" s="5"/>
+      <c r="GE11" s="5"/>
+      <c r="GF11" s="5"/>
+      <c r="GG11" s="5"/>
+      <c r="GH11" s="5"/>
+      <c r="GI11" s="5"/>
+      <c r="GJ11" s="5"/>
+      <c r="GK11" s="5"/>
+      <c r="GL11" s="5"/>
+      <c r="GM11" s="5"/>
+      <c r="GN11" s="5"/>
+      <c r="GO11" s="5"/>
+      <c r="GP11" s="5"/>
+      <c r="GQ11" s="5"/>
+      <c r="GR11" s="5"/>
+      <c r="GS11" s="5"/>
+      <c r="GT11" s="5"/>
+      <c r="GU11" s="5"/>
+      <c r="GV11" s="5"/>
+      <c r="GW11" s="5"/>
+      <c r="GX11" s="5"/>
+      <c r="GY11" s="5"/>
+      <c r="GZ11" s="5"/>
+      <c r="HA11" s="5"/>
+      <c r="HB11" s="5"/>
+      <c r="HC11" s="5"/>
+      <c r="HD11" s="5"/>
+      <c r="HE11" s="5"/>
+      <c r="HF11" s="5"/>
+      <c r="HG11" s="5"/>
+      <c r="HH11" s="5"/>
+      <c r="HI11" s="5"/>
+      <c r="HJ11" s="5"/>
+      <c r="HK11" s="5"/>
+      <c r="HL11" s="5"/>
+      <c r="HM11" s="5"/>
+      <c r="HN11" s="5"/>
+      <c r="HO11" s="5"/>
+      <c r="HP11" s="5"/>
+      <c r="HQ11" s="5"/>
+      <c r="HR11" s="5"/>
+      <c r="HS11" s="5"/>
+      <c r="HT11" s="5"/>
+      <c r="HU11" s="5"/>
+      <c r="HV11" s="5"/>
+      <c r="HW11" s="5"/>
+      <c r="HX11" s="5"/>
+      <c r="HY11" s="5"/>
+      <c r="HZ11" s="5"/>
+      <c r="IA11" s="5"/>
+      <c r="IB11" s="5"/>
+      <c r="IC11" s="5"/>
+      <c r="ID11" s="5"/>
+      <c r="IE11" s="5"/>
+      <c r="IF11" s="5"/>
+      <c r="IG11" s="5"/>
+      <c r="IH11" s="5"/>
+      <c r="II11" s="5"/>
+      <c r="IJ11" s="5"/>
+      <c r="IK11" s="5"/>
+      <c r="IL11" s="5"/>
+      <c r="IM11" s="5"/>
+      <c r="IN11" s="5"/>
+      <c r="IO11" s="5"/>
+      <c r="IP11" s="5"/>
+      <c r="IQ11" s="5"/>
+      <c r="IR11" s="5"/>
+      <c r="IS11" s="5"/>
+      <c r="IT11" s="5"/>
+    </row>
+    <row r="12" spans="1:255" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:255" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:255" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="31">
+        <v>1</v>
+      </c>
+      <c r="B14" s="19"/>
+    </row>
+    <row r="16" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="5"/>
+      <c r="AU16" s="5"/>
+      <c r="AV16" s="5"/>
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="5"/>
+      <c r="AY16" s="5"/>
+      <c r="AZ16" s="5"/>
+      <c r="BA16" s="5"/>
+      <c r="BB16" s="5"/>
+      <c r="BC16" s="5"/>
+      <c r="BD16" s="5"/>
+      <c r="BE16" s="5"/>
+      <c r="BF16" s="5"/>
+      <c r="BG16" s="5"/>
+      <c r="BH16" s="5"/>
+      <c r="BI16" s="5"/>
+      <c r="BJ16" s="5"/>
+      <c r="BK16" s="5"/>
+      <c r="BL16" s="5"/>
+      <c r="BM16" s="5"/>
+      <c r="BN16" s="5"/>
+      <c r="BO16" s="5"/>
+      <c r="BP16" s="5"/>
+      <c r="BQ16" s="5"/>
+      <c r="BR16" s="5"/>
+      <c r="BS16" s="5"/>
+      <c r="BT16" s="5"/>
+      <c r="BU16" s="5"/>
+      <c r="BV16" s="5"/>
+      <c r="BW16" s="5"/>
+      <c r="BX16" s="5"/>
+      <c r="BY16" s="5"/>
+      <c r="BZ16" s="5"/>
+      <c r="CA16" s="5"/>
+      <c r="CB16" s="5"/>
+      <c r="CC16" s="5"/>
+      <c r="CD16" s="5"/>
+      <c r="CE16" s="5"/>
+      <c r="CF16" s="5"/>
+      <c r="CG16" s="5"/>
+      <c r="CH16" s="5"/>
+      <c r="CI16" s="5"/>
+      <c r="CJ16" s="5"/>
+      <c r="CK16" s="5"/>
+      <c r="CL16" s="5"/>
+      <c r="CM16" s="5"/>
+      <c r="CN16" s="5"/>
+      <c r="CO16" s="5"/>
+      <c r="CP16" s="5"/>
+      <c r="CQ16" s="5"/>
+      <c r="CR16" s="5"/>
+      <c r="CS16" s="5"/>
+      <c r="CT16" s="5"/>
+      <c r="CU16" s="5"/>
+      <c r="CV16" s="5"/>
+      <c r="CW16" s="5"/>
+      <c r="CX16" s="5"/>
+      <c r="CY16" s="5"/>
+      <c r="CZ16" s="5"/>
+      <c r="DA16" s="5"/>
+      <c r="DB16" s="5"/>
+      <c r="DC16" s="5"/>
+      <c r="DD16" s="5"/>
+      <c r="DE16" s="5"/>
+      <c r="DF16" s="5"/>
+      <c r="DG16" s="5"/>
+      <c r="DH16" s="5"/>
+      <c r="DI16" s="5"/>
+      <c r="DJ16" s="5"/>
+      <c r="DK16" s="5"/>
+      <c r="DL16" s="5"/>
+      <c r="DM16" s="5"/>
+      <c r="DN16" s="5"/>
+      <c r="DO16" s="5"/>
+      <c r="DP16" s="5"/>
+      <c r="DQ16" s="5"/>
+      <c r="DR16" s="5"/>
+      <c r="DS16" s="5"/>
+      <c r="DT16" s="5"/>
+      <c r="DU16" s="5"/>
+      <c r="DV16" s="5"/>
+      <c r="DW16" s="5"/>
+      <c r="DX16" s="5"/>
+      <c r="DY16" s="5"/>
+      <c r="DZ16" s="5"/>
+      <c r="EA16" s="5"/>
+      <c r="EB16" s="5"/>
+      <c r="EC16" s="5"/>
+      <c r="ED16" s="5"/>
+      <c r="EE16" s="5"/>
+      <c r="EF16" s="5"/>
+      <c r="EG16" s="5"/>
+      <c r="EH16" s="5"/>
+      <c r="EI16" s="5"/>
+      <c r="EJ16" s="5"/>
+      <c r="EK16" s="5"/>
+      <c r="EL16" s="5"/>
+      <c r="EM16" s="5"/>
+      <c r="EN16" s="5"/>
+      <c r="EO16" s="5"/>
+      <c r="EP16" s="5"/>
+      <c r="EQ16" s="5"/>
+      <c r="ER16" s="5"/>
+      <c r="ES16" s="5"/>
+      <c r="ET16" s="5"/>
+      <c r="EU16" s="5"/>
+      <c r="EV16" s="5"/>
+      <c r="EW16" s="5"/>
+      <c r="EX16" s="5"/>
+      <c r="EY16" s="5"/>
+      <c r="EZ16" s="5"/>
+      <c r="FA16" s="5"/>
+      <c r="FB16" s="5"/>
+      <c r="FC16" s="5"/>
+      <c r="FD16" s="5"/>
+      <c r="FE16" s="5"/>
+      <c r="FF16" s="5"/>
+      <c r="FG16" s="5"/>
+      <c r="FH16" s="5"/>
+      <c r="FI16" s="5"/>
+      <c r="FJ16" s="5"/>
+      <c r="FK16" s="5"/>
+      <c r="FL16" s="5"/>
+      <c r="FM16" s="5"/>
+      <c r="FN16" s="5"/>
+      <c r="FO16" s="5"/>
+      <c r="FP16" s="5"/>
+      <c r="FQ16" s="5"/>
+      <c r="FR16" s="5"/>
+      <c r="FS16" s="5"/>
+      <c r="FT16" s="5"/>
+      <c r="FU16" s="5"/>
+      <c r="FV16" s="5"/>
+      <c r="FW16" s="5"/>
+      <c r="FX16" s="5"/>
+      <c r="FY16" s="5"/>
+      <c r="FZ16" s="5"/>
+      <c r="GA16" s="5"/>
+      <c r="GB16" s="5"/>
+      <c r="GC16" s="5"/>
+      <c r="GD16" s="5"/>
+      <c r="GE16" s="5"/>
+      <c r="GF16" s="5"/>
+      <c r="GG16" s="5"/>
+      <c r="GH16" s="5"/>
+      <c r="GI16" s="5"/>
+      <c r="GJ16" s="5"/>
+      <c r="GK16" s="5"/>
+      <c r="GL16" s="5"/>
+      <c r="GM16" s="5"/>
+      <c r="GN16" s="5"/>
+      <c r="GO16" s="5"/>
+      <c r="GP16" s="5"/>
+      <c r="GQ16" s="5"/>
+      <c r="GR16" s="5"/>
+      <c r="GS16" s="5"/>
+      <c r="GT16" s="5"/>
+      <c r="GU16" s="5"/>
+      <c r="GV16" s="5"/>
+      <c r="GW16" s="5"/>
+      <c r="GX16" s="5"/>
+      <c r="GY16" s="5"/>
+      <c r="GZ16" s="5"/>
+      <c r="HA16" s="5"/>
+      <c r="HB16" s="5"/>
+      <c r="HC16" s="5"/>
+      <c r="HD16" s="5"/>
+      <c r="HE16" s="5"/>
+      <c r="HF16" s="5"/>
+      <c r="HG16" s="5"/>
+      <c r="HH16" s="5"/>
+      <c r="HI16" s="5"/>
+      <c r="HJ16" s="5"/>
+      <c r="HK16" s="5"/>
+      <c r="HL16" s="5"/>
+      <c r="HM16" s="5"/>
+      <c r="HN16" s="5"/>
+      <c r="HO16" s="5"/>
+      <c r="HP16" s="5"/>
+      <c r="HQ16" s="5"/>
+      <c r="HR16" s="5"/>
+      <c r="HS16" s="5"/>
+      <c r="HT16" s="5"/>
+      <c r="HU16" s="5"/>
+      <c r="HV16" s="5"/>
+      <c r="HW16" s="5"/>
+      <c r="HX16" s="5"/>
+      <c r="HY16" s="5"/>
+      <c r="HZ16" s="5"/>
+      <c r="IA16" s="5"/>
+      <c r="IB16" s="5"/>
+      <c r="IC16" s="5"/>
+      <c r="ID16" s="5"/>
+      <c r="IE16" s="5"/>
+      <c r="IF16" s="5"/>
+      <c r="IG16" s="5"/>
+      <c r="IH16" s="5"/>
+      <c r="II16" s="5"/>
+      <c r="IJ16" s="5"/>
+      <c r="IK16" s="5"/>
+      <c r="IL16" s="5"/>
+      <c r="IM16" s="5"/>
+      <c r="IN16" s="5"/>
+      <c r="IO16" s="5"/>
+      <c r="IP16" s="5"/>
+      <c r="IQ16" s="5"/>
+      <c r="IR16" s="5"/>
+      <c r="IS16" s="5"/>
+      <c r="IT16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"さざなみ明朝,太字"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"さざなみ明朝,太字"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5341,7 +7430,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -5726,13 +7815,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7490,7 +9577,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -7498,7 +9585,7 @@
         <v>87</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -7506,7 +9593,7 @@
         <v>97</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -7514,7 +9601,7 @@
         <v>100</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -7852,4 +9939,2021 @@
     <oddFooter>&amp;C&amp;"さざなみ明朝,太字"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFDA74A-12AD-46BC-BDF0-73C54D428CDA}">
+  <dimension ref="A1:IV17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="55.42578125" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="11.28515625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
+      <c r="BM1" s="5"/>
+      <c r="BN1" s="5"/>
+      <c r="BO1" s="5"/>
+      <c r="BP1" s="5"/>
+      <c r="BQ1" s="5"/>
+      <c r="BR1" s="5"/>
+      <c r="BS1" s="5"/>
+      <c r="BT1" s="5"/>
+      <c r="BU1" s="5"/>
+      <c r="BV1" s="5"/>
+      <c r="BW1" s="5"/>
+      <c r="BX1" s="5"/>
+      <c r="BY1" s="5"/>
+      <c r="BZ1" s="5"/>
+      <c r="CA1" s="5"/>
+      <c r="CB1" s="5"/>
+      <c r="CC1" s="5"/>
+      <c r="CD1" s="5"/>
+      <c r="CE1" s="5"/>
+      <c r="CF1" s="5"/>
+      <c r="CG1" s="5"/>
+      <c r="CH1" s="5"/>
+      <c r="CI1" s="5"/>
+      <c r="CJ1" s="5"/>
+      <c r="CK1" s="5"/>
+      <c r="CL1" s="5"/>
+      <c r="CM1" s="5"/>
+      <c r="CN1" s="5"/>
+      <c r="CO1" s="5"/>
+      <c r="CP1" s="5"/>
+      <c r="CQ1" s="5"/>
+      <c r="CR1" s="5"/>
+      <c r="CS1" s="5"/>
+      <c r="CT1" s="5"/>
+      <c r="CU1" s="5"/>
+      <c r="CV1" s="5"/>
+      <c r="CW1" s="5"/>
+      <c r="CX1" s="5"/>
+      <c r="CY1" s="5"/>
+      <c r="CZ1" s="5"/>
+      <c r="DA1" s="5"/>
+      <c r="DB1" s="5"/>
+      <c r="DC1" s="5"/>
+      <c r="DD1" s="5"/>
+      <c r="DE1" s="5"/>
+      <c r="DF1" s="5"/>
+      <c r="DG1" s="5"/>
+      <c r="DH1" s="5"/>
+      <c r="DI1" s="5"/>
+      <c r="DJ1" s="5"/>
+      <c r="DK1" s="5"/>
+      <c r="DL1" s="5"/>
+      <c r="DM1" s="5"/>
+      <c r="DN1" s="5"/>
+      <c r="DO1" s="5"/>
+      <c r="DP1" s="5"/>
+      <c r="DQ1" s="5"/>
+      <c r="DR1" s="5"/>
+      <c r="DS1" s="5"/>
+      <c r="DT1" s="5"/>
+      <c r="DU1" s="5"/>
+      <c r="DV1" s="5"/>
+      <c r="DW1" s="5"/>
+      <c r="DX1" s="5"/>
+      <c r="DY1" s="5"/>
+      <c r="DZ1" s="5"/>
+      <c r="EA1" s="5"/>
+      <c r="EB1" s="5"/>
+      <c r="EC1" s="5"/>
+      <c r="ED1" s="5"/>
+      <c r="EE1" s="5"/>
+      <c r="EF1" s="5"/>
+      <c r="EG1" s="5"/>
+      <c r="EH1" s="5"/>
+      <c r="EI1" s="5"/>
+      <c r="EJ1" s="5"/>
+      <c r="EK1" s="5"/>
+      <c r="EL1" s="5"/>
+      <c r="EM1" s="5"/>
+      <c r="EN1" s="5"/>
+      <c r="EO1" s="5"/>
+      <c r="EP1" s="5"/>
+      <c r="EQ1" s="5"/>
+      <c r="ER1" s="5"/>
+      <c r="ES1" s="5"/>
+      <c r="ET1" s="5"/>
+      <c r="EU1" s="5"/>
+      <c r="EV1" s="5"/>
+      <c r="EW1" s="5"/>
+      <c r="EX1" s="5"/>
+      <c r="EY1" s="5"/>
+      <c r="EZ1" s="5"/>
+      <c r="FA1" s="5"/>
+      <c r="FB1" s="5"/>
+      <c r="FC1" s="5"/>
+      <c r="FD1" s="5"/>
+      <c r="FE1" s="5"/>
+      <c r="FF1" s="5"/>
+      <c r="FG1" s="5"/>
+      <c r="FH1" s="5"/>
+      <c r="FI1" s="5"/>
+      <c r="FJ1" s="5"/>
+      <c r="FK1" s="5"/>
+      <c r="FL1" s="5"/>
+      <c r="FM1" s="5"/>
+      <c r="FN1" s="5"/>
+      <c r="FO1" s="5"/>
+      <c r="FP1" s="5"/>
+      <c r="FQ1" s="5"/>
+      <c r="FR1" s="5"/>
+      <c r="FS1" s="5"/>
+      <c r="FT1" s="5"/>
+      <c r="FU1" s="5"/>
+      <c r="FV1" s="5"/>
+      <c r="FW1" s="5"/>
+      <c r="FX1" s="5"/>
+      <c r="FY1" s="5"/>
+      <c r="FZ1" s="5"/>
+      <c r="GA1" s="5"/>
+      <c r="GB1" s="5"/>
+      <c r="GC1" s="5"/>
+      <c r="GD1" s="5"/>
+      <c r="GE1" s="5"/>
+      <c r="GF1" s="5"/>
+      <c r="GG1" s="5"/>
+      <c r="GH1" s="5"/>
+      <c r="GI1" s="5"/>
+      <c r="GJ1" s="5"/>
+      <c r="GK1" s="5"/>
+      <c r="GL1" s="5"/>
+      <c r="GM1" s="5"/>
+      <c r="GN1" s="5"/>
+      <c r="GO1" s="5"/>
+      <c r="GP1" s="5"/>
+      <c r="GQ1" s="5"/>
+      <c r="GR1" s="5"/>
+      <c r="GS1" s="5"/>
+      <c r="GT1" s="5"/>
+      <c r="GU1" s="5"/>
+      <c r="GV1" s="5"/>
+      <c r="GW1" s="5"/>
+      <c r="GX1" s="5"/>
+      <c r="GY1" s="5"/>
+      <c r="GZ1" s="5"/>
+      <c r="HA1" s="5"/>
+      <c r="HB1" s="5"/>
+      <c r="HC1" s="5"/>
+      <c r="HD1" s="5"/>
+      <c r="HE1" s="5"/>
+      <c r="HF1" s="5"/>
+      <c r="HG1" s="5"/>
+      <c r="HH1" s="5"/>
+      <c r="HI1" s="5"/>
+      <c r="HJ1" s="5"/>
+      <c r="HK1" s="5"/>
+      <c r="HL1" s="5"/>
+      <c r="HM1" s="5"/>
+      <c r="HN1" s="5"/>
+      <c r="HO1" s="5"/>
+      <c r="HP1" s="5"/>
+      <c r="HQ1" s="5"/>
+      <c r="HR1" s="5"/>
+      <c r="HS1" s="5"/>
+      <c r="HT1" s="5"/>
+      <c r="HU1" s="5"/>
+      <c r="HV1" s="5"/>
+      <c r="HW1" s="5"/>
+      <c r="HX1" s="5"/>
+      <c r="HY1" s="5"/>
+      <c r="HZ1" s="5"/>
+      <c r="IA1" s="5"/>
+      <c r="IB1" s="5"/>
+      <c r="IC1" s="5"/>
+      <c r="ID1" s="5"/>
+      <c r="IE1" s="5"/>
+      <c r="IF1" s="5"/>
+      <c r="IG1" s="5"/>
+      <c r="IH1" s="5"/>
+      <c r="II1" s="5"/>
+      <c r="IJ1" s="5"/>
+      <c r="IK1" s="5"/>
+      <c r="IL1" s="5"/>
+      <c r="IM1" s="5"/>
+      <c r="IN1" s="5"/>
+      <c r="IO1" s="5"/>
+      <c r="IP1" s="5"/>
+      <c r="IQ1" s="5"/>
+      <c r="IR1" s="5"/>
+      <c r="IS1" s="5"/>
+      <c r="IT1" s="5"/>
+      <c r="IU1" s="5"/>
+    </row>
+    <row r="2" spans="1:256" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
+      <c r="A6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="17"/>
+      <c r="BA6" s="17"/>
+      <c r="BB6" s="17"/>
+      <c r="BC6" s="17"/>
+      <c r="BD6" s="17"/>
+      <c r="BE6" s="17"/>
+      <c r="BF6" s="17"/>
+      <c r="BG6" s="17"/>
+      <c r="BH6" s="17"/>
+      <c r="BI6" s="17"/>
+      <c r="BJ6" s="17"/>
+      <c r="BK6" s="17"/>
+      <c r="BL6" s="17"/>
+      <c r="BM6" s="17"/>
+      <c r="BN6" s="17"/>
+      <c r="BO6" s="17"/>
+      <c r="BP6" s="17"/>
+      <c r="BQ6" s="17"/>
+      <c r="BR6" s="17"/>
+      <c r="BS6" s="17"/>
+      <c r="BT6" s="17"/>
+      <c r="BU6" s="17"/>
+      <c r="BV6" s="17"/>
+      <c r="BW6" s="17"/>
+      <c r="BX6" s="17"/>
+      <c r="BY6" s="17"/>
+      <c r="BZ6" s="17"/>
+      <c r="CA6" s="17"/>
+      <c r="CB6" s="17"/>
+      <c r="CC6" s="17"/>
+      <c r="CD6" s="17"/>
+      <c r="CE6" s="17"/>
+      <c r="CF6" s="17"/>
+      <c r="CG6" s="17"/>
+      <c r="CH6" s="17"/>
+      <c r="CI6" s="17"/>
+      <c r="CJ6" s="17"/>
+      <c r="CK6" s="17"/>
+      <c r="CL6" s="17"/>
+      <c r="CM6" s="17"/>
+      <c r="CN6" s="17"/>
+      <c r="CO6" s="17"/>
+      <c r="CP6" s="17"/>
+      <c r="CQ6" s="17"/>
+      <c r="CR6" s="17"/>
+      <c r="CS6" s="17"/>
+      <c r="CT6" s="17"/>
+      <c r="CU6" s="17"/>
+      <c r="CV6" s="17"/>
+      <c r="CW6" s="17"/>
+      <c r="CX6" s="17"/>
+      <c r="CY6" s="17"/>
+      <c r="CZ6" s="17"/>
+      <c r="DA6" s="17"/>
+      <c r="DB6" s="17"/>
+      <c r="DC6" s="17"/>
+      <c r="DD6" s="17"/>
+      <c r="DE6" s="17"/>
+      <c r="DF6" s="17"/>
+      <c r="DG6" s="17"/>
+      <c r="DH6" s="17"/>
+      <c r="DI6" s="17"/>
+      <c r="DJ6" s="17"/>
+      <c r="DK6" s="17"/>
+      <c r="DL6" s="17"/>
+      <c r="DM6" s="17"/>
+      <c r="DN6" s="17"/>
+      <c r="DO6" s="17"/>
+      <c r="DP6" s="17"/>
+      <c r="DQ6" s="17"/>
+      <c r="DR6" s="17"/>
+      <c r="DS6" s="17"/>
+      <c r="DT6" s="17"/>
+      <c r="DU6" s="17"/>
+      <c r="DV6" s="17"/>
+      <c r="DW6" s="17"/>
+      <c r="DX6" s="17"/>
+      <c r="DY6" s="17"/>
+      <c r="DZ6" s="17"/>
+      <c r="EA6" s="17"/>
+      <c r="EB6" s="17"/>
+      <c r="EC6" s="17"/>
+      <c r="ED6" s="17"/>
+      <c r="EE6" s="17"/>
+      <c r="EF6" s="17"/>
+      <c r="EG6" s="17"/>
+      <c r="EH6" s="17"/>
+      <c r="EI6" s="17"/>
+      <c r="EJ6" s="17"/>
+      <c r="EK6" s="17"/>
+      <c r="EL6" s="17"/>
+      <c r="EM6" s="17"/>
+      <c r="EN6" s="17"/>
+      <c r="EO6" s="17"/>
+      <c r="EP6" s="17"/>
+      <c r="EQ6" s="17"/>
+      <c r="ER6" s="17"/>
+      <c r="ES6" s="17"/>
+      <c r="ET6" s="17"/>
+      <c r="EU6" s="17"/>
+      <c r="EV6" s="17"/>
+      <c r="EW6" s="17"/>
+      <c r="EX6" s="17"/>
+      <c r="EY6" s="17"/>
+      <c r="EZ6" s="17"/>
+      <c r="FA6" s="17"/>
+      <c r="FB6" s="17"/>
+      <c r="FC6" s="17"/>
+      <c r="FD6" s="17"/>
+      <c r="FE6" s="17"/>
+      <c r="FF6" s="17"/>
+      <c r="FG6" s="17"/>
+      <c r="FH6" s="17"/>
+      <c r="FI6" s="17"/>
+      <c r="FJ6" s="17"/>
+      <c r="FK6" s="17"/>
+      <c r="FL6" s="17"/>
+      <c r="FM6" s="17"/>
+      <c r="FN6" s="17"/>
+      <c r="FO6" s="17"/>
+      <c r="FP6" s="17"/>
+      <c r="FQ6" s="17"/>
+      <c r="FR6" s="17"/>
+      <c r="FS6" s="17"/>
+      <c r="FT6" s="17"/>
+      <c r="FU6" s="17"/>
+      <c r="FV6" s="17"/>
+      <c r="FW6" s="17"/>
+      <c r="FX6" s="17"/>
+      <c r="FY6" s="17"/>
+      <c r="FZ6" s="17"/>
+      <c r="GA6" s="17"/>
+      <c r="GB6" s="17"/>
+      <c r="GC6" s="17"/>
+      <c r="GD6" s="17"/>
+      <c r="GE6" s="17"/>
+      <c r="GF6" s="17"/>
+      <c r="GG6" s="17"/>
+      <c r="GH6" s="17"/>
+      <c r="GI6" s="17"/>
+      <c r="GJ6" s="17"/>
+      <c r="GK6" s="17"/>
+      <c r="GL6" s="17"/>
+      <c r="GM6" s="17"/>
+      <c r="GN6" s="17"/>
+      <c r="GO6" s="17"/>
+      <c r="GP6" s="17"/>
+      <c r="GQ6" s="17"/>
+      <c r="GR6" s="17"/>
+      <c r="GS6" s="17"/>
+      <c r="GT6" s="17"/>
+      <c r="GU6" s="17"/>
+      <c r="GV6" s="17"/>
+      <c r="GW6" s="17"/>
+      <c r="GX6" s="17"/>
+      <c r="GY6" s="17"/>
+      <c r="GZ6" s="17"/>
+      <c r="HA6" s="17"/>
+      <c r="HB6" s="17"/>
+      <c r="HC6" s="17"/>
+      <c r="HD6" s="17"/>
+      <c r="HE6" s="17"/>
+      <c r="HF6" s="17"/>
+      <c r="HG6" s="17"/>
+      <c r="HH6" s="17"/>
+      <c r="HI6" s="17"/>
+      <c r="HJ6" s="17"/>
+      <c r="HK6" s="17"/>
+      <c r="HL6" s="17"/>
+      <c r="HM6" s="17"/>
+      <c r="HN6" s="17"/>
+      <c r="HO6" s="17"/>
+      <c r="HP6" s="17"/>
+      <c r="HQ6" s="17"/>
+      <c r="HR6" s="17"/>
+      <c r="HS6" s="17"/>
+      <c r="HT6" s="17"/>
+      <c r="HU6" s="17"/>
+      <c r="HV6" s="17"/>
+      <c r="HW6" s="17"/>
+      <c r="HX6" s="17"/>
+      <c r="HY6" s="17"/>
+      <c r="HZ6" s="17"/>
+      <c r="IA6" s="17"/>
+      <c r="IB6" s="17"/>
+      <c r="IC6" s="17"/>
+      <c r="ID6" s="17"/>
+      <c r="IE6" s="17"/>
+      <c r="IF6" s="17"/>
+      <c r="IG6" s="17"/>
+      <c r="IH6" s="17"/>
+      <c r="II6" s="17"/>
+      <c r="IJ6" s="17"/>
+      <c r="IK6" s="17"/>
+      <c r="IL6" s="17"/>
+      <c r="IM6" s="17"/>
+      <c r="IN6" s="17"/>
+      <c r="IO6" s="17"/>
+      <c r="IP6" s="17"/>
+      <c r="IQ6" s="17"/>
+      <c r="IR6" s="17"/>
+      <c r="IS6" s="17"/>
+      <c r="IT6" s="17"/>
+      <c r="IU6" s="17"/>
+      <c r="IV6" s="17"/>
+    </row>
+    <row r="7" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="17"/>
+      <c r="AP7" s="17"/>
+      <c r="AQ7" s="17"/>
+      <c r="AR7" s="17"/>
+      <c r="AS7" s="17"/>
+      <c r="AT7" s="17"/>
+      <c r="AU7" s="17"/>
+      <c r="AV7" s="17"/>
+      <c r="AW7" s="17"/>
+      <c r="AX7" s="17"/>
+      <c r="AY7" s="17"/>
+      <c r="AZ7" s="17"/>
+      <c r="BA7" s="17"/>
+      <c r="BB7" s="17"/>
+      <c r="BC7" s="17"/>
+      <c r="BD7" s="17"/>
+      <c r="BE7" s="17"/>
+      <c r="BF7" s="17"/>
+      <c r="BG7" s="17"/>
+      <c r="BH7" s="17"/>
+      <c r="BI7" s="17"/>
+      <c r="BJ7" s="17"/>
+      <c r="BK7" s="17"/>
+      <c r="BL7" s="17"/>
+      <c r="BM7" s="17"/>
+      <c r="BN7" s="17"/>
+      <c r="BO7" s="17"/>
+      <c r="BP7" s="17"/>
+      <c r="BQ7" s="17"/>
+      <c r="BR7" s="17"/>
+      <c r="BS7" s="17"/>
+      <c r="BT7" s="17"/>
+      <c r="BU7" s="17"/>
+      <c r="BV7" s="17"/>
+      <c r="BW7" s="17"/>
+      <c r="BX7" s="17"/>
+      <c r="BY7" s="17"/>
+      <c r="BZ7" s="17"/>
+      <c r="CA7" s="17"/>
+      <c r="CB7" s="17"/>
+      <c r="CC7" s="17"/>
+      <c r="CD7" s="17"/>
+      <c r="CE7" s="17"/>
+      <c r="CF7" s="17"/>
+      <c r="CG7" s="17"/>
+      <c r="CH7" s="17"/>
+      <c r="CI7" s="17"/>
+      <c r="CJ7" s="17"/>
+      <c r="CK7" s="17"/>
+      <c r="CL7" s="17"/>
+      <c r="CM7" s="17"/>
+      <c r="CN7" s="17"/>
+      <c r="CO7" s="17"/>
+      <c r="CP7" s="17"/>
+      <c r="CQ7" s="17"/>
+      <c r="CR7" s="17"/>
+      <c r="CS7" s="17"/>
+      <c r="CT7" s="17"/>
+      <c r="CU7" s="17"/>
+      <c r="CV7" s="17"/>
+      <c r="CW7" s="17"/>
+      <c r="CX7" s="17"/>
+      <c r="CY7" s="17"/>
+      <c r="CZ7" s="17"/>
+      <c r="DA7" s="17"/>
+      <c r="DB7" s="17"/>
+      <c r="DC7" s="17"/>
+      <c r="DD7" s="17"/>
+      <c r="DE7" s="17"/>
+      <c r="DF7" s="17"/>
+      <c r="DG7" s="17"/>
+      <c r="DH7" s="17"/>
+      <c r="DI7" s="17"/>
+      <c r="DJ7" s="17"/>
+      <c r="DK7" s="17"/>
+      <c r="DL7" s="17"/>
+      <c r="DM7" s="17"/>
+      <c r="DN7" s="17"/>
+      <c r="DO7" s="17"/>
+      <c r="DP7" s="17"/>
+      <c r="DQ7" s="17"/>
+      <c r="DR7" s="17"/>
+      <c r="DS7" s="17"/>
+      <c r="DT7" s="17"/>
+      <c r="DU7" s="17"/>
+      <c r="DV7" s="17"/>
+      <c r="DW7" s="17"/>
+      <c r="DX7" s="17"/>
+      <c r="DY7" s="17"/>
+      <c r="DZ7" s="17"/>
+      <c r="EA7" s="17"/>
+      <c r="EB7" s="17"/>
+      <c r="EC7" s="17"/>
+      <c r="ED7" s="17"/>
+      <c r="EE7" s="17"/>
+      <c r="EF7" s="17"/>
+      <c r="EG7" s="17"/>
+      <c r="EH7" s="17"/>
+      <c r="EI7" s="17"/>
+      <c r="EJ7" s="17"/>
+      <c r="EK7" s="17"/>
+      <c r="EL7" s="17"/>
+      <c r="EM7" s="17"/>
+      <c r="EN7" s="17"/>
+      <c r="EO7" s="17"/>
+      <c r="EP7" s="17"/>
+      <c r="EQ7" s="17"/>
+      <c r="ER7" s="17"/>
+      <c r="ES7" s="17"/>
+      <c r="ET7" s="17"/>
+      <c r="EU7" s="17"/>
+      <c r="EV7" s="17"/>
+      <c r="EW7" s="17"/>
+      <c r="EX7" s="17"/>
+      <c r="EY7" s="17"/>
+      <c r="EZ7" s="17"/>
+      <c r="FA7" s="17"/>
+      <c r="FB7" s="17"/>
+      <c r="FC7" s="17"/>
+      <c r="FD7" s="17"/>
+      <c r="FE7" s="17"/>
+      <c r="FF7" s="17"/>
+      <c r="FG7" s="17"/>
+      <c r="FH7" s="17"/>
+      <c r="FI7" s="17"/>
+      <c r="FJ7" s="17"/>
+      <c r="FK7" s="17"/>
+      <c r="FL7" s="17"/>
+      <c r="FM7" s="17"/>
+      <c r="FN7" s="17"/>
+      <c r="FO7" s="17"/>
+      <c r="FP7" s="17"/>
+      <c r="FQ7" s="17"/>
+      <c r="FR7" s="17"/>
+      <c r="FS7" s="17"/>
+      <c r="FT7" s="17"/>
+      <c r="FU7" s="17"/>
+      <c r="FV7" s="17"/>
+      <c r="FW7" s="17"/>
+      <c r="FX7" s="17"/>
+      <c r="FY7" s="17"/>
+      <c r="FZ7" s="17"/>
+      <c r="GA7" s="17"/>
+      <c r="GB7" s="17"/>
+      <c r="GC7" s="17"/>
+      <c r="GD7" s="17"/>
+      <c r="GE7" s="17"/>
+      <c r="GF7" s="17"/>
+      <c r="GG7" s="17"/>
+      <c r="GH7" s="17"/>
+      <c r="GI7" s="17"/>
+      <c r="GJ7" s="17"/>
+      <c r="GK7" s="17"/>
+      <c r="GL7" s="17"/>
+      <c r="GM7" s="17"/>
+      <c r="GN7" s="17"/>
+      <c r="GO7" s="17"/>
+      <c r="GP7" s="17"/>
+      <c r="GQ7" s="17"/>
+      <c r="GR7" s="17"/>
+      <c r="GS7" s="17"/>
+      <c r="GT7" s="17"/>
+      <c r="GU7" s="17"/>
+      <c r="GV7" s="17"/>
+      <c r="GW7" s="17"/>
+      <c r="GX7" s="17"/>
+      <c r="GY7" s="17"/>
+      <c r="GZ7" s="17"/>
+      <c r="HA7" s="17"/>
+      <c r="HB7" s="17"/>
+      <c r="HC7" s="17"/>
+      <c r="HD7" s="17"/>
+      <c r="HE7" s="17"/>
+      <c r="HF7" s="17"/>
+      <c r="HG7" s="17"/>
+      <c r="HH7" s="17"/>
+      <c r="HI7" s="17"/>
+      <c r="HJ7" s="17"/>
+      <c r="HK7" s="17"/>
+      <c r="HL7" s="17"/>
+      <c r="HM7" s="17"/>
+      <c r="HN7" s="17"/>
+      <c r="HO7" s="17"/>
+      <c r="HP7" s="17"/>
+      <c r="HQ7" s="17"/>
+      <c r="HR7" s="17"/>
+      <c r="HS7" s="17"/>
+      <c r="HT7" s="17"/>
+      <c r="HU7" s="17"/>
+      <c r="HV7" s="17"/>
+      <c r="HW7" s="17"/>
+      <c r="HX7" s="17"/>
+      <c r="HY7" s="17"/>
+      <c r="HZ7" s="17"/>
+      <c r="IA7" s="17"/>
+      <c r="IB7" s="17"/>
+      <c r="IC7" s="17"/>
+      <c r="ID7" s="17"/>
+      <c r="IE7" s="17"/>
+      <c r="IF7" s="17"/>
+      <c r="IG7" s="17"/>
+      <c r="IH7" s="17"/>
+      <c r="II7" s="17"/>
+      <c r="IJ7" s="17"/>
+      <c r="IK7" s="17"/>
+      <c r="IL7" s="17"/>
+      <c r="IM7" s="17"/>
+      <c r="IN7" s="17"/>
+      <c r="IO7" s="17"/>
+      <c r="IP7" s="17"/>
+      <c r="IQ7" s="17"/>
+      <c r="IR7" s="17"/>
+      <c r="IS7" s="17"/>
+      <c r="IT7" s="17"/>
+      <c r="IU7" s="17"/>
+      <c r="IV7" s="17"/>
+    </row>
+    <row r="8" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="17"/>
+      <c r="AO8" s="17"/>
+      <c r="AP8" s="17"/>
+      <c r="AQ8" s="17"/>
+      <c r="AR8" s="17"/>
+      <c r="AS8" s="17"/>
+      <c r="AT8" s="17"/>
+      <c r="AU8" s="17"/>
+      <c r="AV8" s="17"/>
+      <c r="AW8" s="17"/>
+      <c r="AX8" s="17"/>
+      <c r="AY8" s="17"/>
+      <c r="AZ8" s="17"/>
+      <c r="BA8" s="17"/>
+      <c r="BB8" s="17"/>
+      <c r="BC8" s="17"/>
+      <c r="BD8" s="17"/>
+      <c r="BE8" s="17"/>
+      <c r="BF8" s="17"/>
+      <c r="BG8" s="17"/>
+      <c r="BH8" s="17"/>
+      <c r="BI8" s="17"/>
+      <c r="BJ8" s="17"/>
+      <c r="BK8" s="17"/>
+      <c r="BL8" s="17"/>
+      <c r="BM8" s="17"/>
+      <c r="BN8" s="17"/>
+      <c r="BO8" s="17"/>
+      <c r="BP8" s="17"/>
+      <c r="BQ8" s="17"/>
+      <c r="BR8" s="17"/>
+      <c r="BS8" s="17"/>
+      <c r="BT8" s="17"/>
+      <c r="BU8" s="17"/>
+      <c r="BV8" s="17"/>
+      <c r="BW8" s="17"/>
+      <c r="BX8" s="17"/>
+      <c r="BY8" s="17"/>
+      <c r="BZ8" s="17"/>
+      <c r="CA8" s="17"/>
+      <c r="CB8" s="17"/>
+      <c r="CC8" s="17"/>
+      <c r="CD8" s="17"/>
+      <c r="CE8" s="17"/>
+      <c r="CF8" s="17"/>
+      <c r="CG8" s="17"/>
+      <c r="CH8" s="17"/>
+      <c r="CI8" s="17"/>
+      <c r="CJ8" s="17"/>
+      <c r="CK8" s="17"/>
+      <c r="CL8" s="17"/>
+      <c r="CM8" s="17"/>
+      <c r="CN8" s="17"/>
+      <c r="CO8" s="17"/>
+      <c r="CP8" s="17"/>
+      <c r="CQ8" s="17"/>
+      <c r="CR8" s="17"/>
+      <c r="CS8" s="17"/>
+      <c r="CT8" s="17"/>
+      <c r="CU8" s="17"/>
+      <c r="CV8" s="17"/>
+      <c r="CW8" s="17"/>
+      <c r="CX8" s="17"/>
+      <c r="CY8" s="17"/>
+      <c r="CZ8" s="17"/>
+      <c r="DA8" s="17"/>
+      <c r="DB8" s="17"/>
+      <c r="DC8" s="17"/>
+      <c r="DD8" s="17"/>
+      <c r="DE8" s="17"/>
+      <c r="DF8" s="17"/>
+      <c r="DG8" s="17"/>
+      <c r="DH8" s="17"/>
+      <c r="DI8" s="17"/>
+      <c r="DJ8" s="17"/>
+      <c r="DK8" s="17"/>
+      <c r="DL8" s="17"/>
+      <c r="DM8" s="17"/>
+      <c r="DN8" s="17"/>
+      <c r="DO8" s="17"/>
+      <c r="DP8" s="17"/>
+      <c r="DQ8" s="17"/>
+      <c r="DR8" s="17"/>
+      <c r="DS8" s="17"/>
+      <c r="DT8" s="17"/>
+      <c r="DU8" s="17"/>
+      <c r="DV8" s="17"/>
+      <c r="DW8" s="17"/>
+      <c r="DX8" s="17"/>
+      <c r="DY8" s="17"/>
+      <c r="DZ8" s="17"/>
+      <c r="EA8" s="17"/>
+      <c r="EB8" s="17"/>
+      <c r="EC8" s="17"/>
+      <c r="ED8" s="17"/>
+      <c r="EE8" s="17"/>
+      <c r="EF8" s="17"/>
+      <c r="EG8" s="17"/>
+      <c r="EH8" s="17"/>
+      <c r="EI8" s="17"/>
+      <c r="EJ8" s="17"/>
+      <c r="EK8" s="17"/>
+      <c r="EL8" s="17"/>
+      <c r="EM8" s="17"/>
+      <c r="EN8" s="17"/>
+      <c r="EO8" s="17"/>
+      <c r="EP8" s="17"/>
+      <c r="EQ8" s="17"/>
+      <c r="ER8" s="17"/>
+      <c r="ES8" s="17"/>
+      <c r="ET8" s="17"/>
+      <c r="EU8" s="17"/>
+      <c r="EV8" s="17"/>
+      <c r="EW8" s="17"/>
+      <c r="EX8" s="17"/>
+      <c r="EY8" s="17"/>
+      <c r="EZ8" s="17"/>
+      <c r="FA8" s="17"/>
+      <c r="FB8" s="17"/>
+      <c r="FC8" s="17"/>
+      <c r="FD8" s="17"/>
+      <c r="FE8" s="17"/>
+      <c r="FF8" s="17"/>
+      <c r="FG8" s="17"/>
+      <c r="FH8" s="17"/>
+      <c r="FI8" s="17"/>
+      <c r="FJ8" s="17"/>
+      <c r="FK8" s="17"/>
+      <c r="FL8" s="17"/>
+      <c r="FM8" s="17"/>
+      <c r="FN8" s="17"/>
+      <c r="FO8" s="17"/>
+      <c r="FP8" s="17"/>
+      <c r="FQ8" s="17"/>
+      <c r="FR8" s="17"/>
+      <c r="FS8" s="17"/>
+      <c r="FT8" s="17"/>
+      <c r="FU8" s="17"/>
+      <c r="FV8" s="17"/>
+      <c r="FW8" s="17"/>
+      <c r="FX8" s="17"/>
+      <c r="FY8" s="17"/>
+      <c r="FZ8" s="17"/>
+      <c r="GA8" s="17"/>
+      <c r="GB8" s="17"/>
+      <c r="GC8" s="17"/>
+      <c r="GD8" s="17"/>
+      <c r="GE8" s="17"/>
+      <c r="GF8" s="17"/>
+      <c r="GG8" s="17"/>
+      <c r="GH8" s="17"/>
+      <c r="GI8" s="17"/>
+      <c r="GJ8" s="17"/>
+      <c r="GK8" s="17"/>
+      <c r="GL8" s="17"/>
+      <c r="GM8" s="17"/>
+      <c r="GN8" s="17"/>
+      <c r="GO8" s="17"/>
+      <c r="GP8" s="17"/>
+      <c r="GQ8" s="17"/>
+      <c r="GR8" s="17"/>
+      <c r="GS8" s="17"/>
+      <c r="GT8" s="17"/>
+      <c r="GU8" s="17"/>
+      <c r="GV8" s="17"/>
+      <c r="GW8" s="17"/>
+      <c r="GX8" s="17"/>
+      <c r="GY8" s="17"/>
+      <c r="GZ8" s="17"/>
+      <c r="HA8" s="17"/>
+      <c r="HB8" s="17"/>
+      <c r="HC8" s="17"/>
+      <c r="HD8" s="17"/>
+      <c r="HE8" s="17"/>
+      <c r="HF8" s="17"/>
+      <c r="HG8" s="17"/>
+      <c r="HH8" s="17"/>
+      <c r="HI8" s="17"/>
+      <c r="HJ8" s="17"/>
+      <c r="HK8" s="17"/>
+      <c r="HL8" s="17"/>
+      <c r="HM8" s="17"/>
+      <c r="HN8" s="17"/>
+      <c r="HO8" s="17"/>
+      <c r="HP8" s="17"/>
+      <c r="HQ8" s="17"/>
+      <c r="HR8" s="17"/>
+      <c r="HS8" s="17"/>
+      <c r="HT8" s="17"/>
+      <c r="HU8" s="17"/>
+      <c r="HV8" s="17"/>
+      <c r="HW8" s="17"/>
+      <c r="HX8" s="17"/>
+      <c r="HY8" s="17"/>
+      <c r="HZ8" s="17"/>
+      <c r="IA8" s="17"/>
+      <c r="IB8" s="17"/>
+      <c r="IC8" s="17"/>
+      <c r="ID8" s="17"/>
+      <c r="IE8" s="17"/>
+      <c r="IF8" s="17"/>
+      <c r="IG8" s="17"/>
+      <c r="IH8" s="17"/>
+      <c r="II8" s="17"/>
+      <c r="IJ8" s="17"/>
+      <c r="IK8" s="17"/>
+      <c r="IL8" s="17"/>
+      <c r="IM8" s="17"/>
+      <c r="IN8" s="17"/>
+      <c r="IO8" s="17"/>
+      <c r="IP8" s="17"/>
+      <c r="IQ8" s="17"/>
+      <c r="IR8" s="17"/>
+      <c r="IS8" s="17"/>
+      <c r="IT8" s="17"/>
+      <c r="IU8" s="17"/>
+      <c r="IV8" s="17"/>
+    </row>
+    <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="17"/>
+      <c r="AQ9" s="17"/>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="17"/>
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="17"/>
+      <c r="AW9" s="17"/>
+      <c r="AX9" s="17"/>
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="17"/>
+      <c r="BA9" s="17"/>
+      <c r="BB9" s="17"/>
+      <c r="BC9" s="17"/>
+      <c r="BD9" s="17"/>
+      <c r="BE9" s="17"/>
+      <c r="BF9" s="17"/>
+      <c r="BG9" s="17"/>
+      <c r="BH9" s="17"/>
+      <c r="BI9" s="17"/>
+      <c r="BJ9" s="17"/>
+      <c r="BK9" s="17"/>
+      <c r="BL9" s="17"/>
+      <c r="BM9" s="17"/>
+      <c r="BN9" s="17"/>
+      <c r="BO9" s="17"/>
+      <c r="BP9" s="17"/>
+      <c r="BQ9" s="17"/>
+      <c r="BR9" s="17"/>
+      <c r="BS9" s="17"/>
+      <c r="BT9" s="17"/>
+      <c r="BU9" s="17"/>
+      <c r="BV9" s="17"/>
+      <c r="BW9" s="17"/>
+      <c r="BX9" s="17"/>
+      <c r="BY9" s="17"/>
+      <c r="BZ9" s="17"/>
+      <c r="CA9" s="17"/>
+      <c r="CB9" s="17"/>
+      <c r="CC9" s="17"/>
+      <c r="CD9" s="17"/>
+      <c r="CE9" s="17"/>
+      <c r="CF9" s="17"/>
+      <c r="CG9" s="17"/>
+      <c r="CH9" s="17"/>
+      <c r="CI9" s="17"/>
+      <c r="CJ9" s="17"/>
+      <c r="CK9" s="17"/>
+      <c r="CL9" s="17"/>
+      <c r="CM9" s="17"/>
+      <c r="CN9" s="17"/>
+      <c r="CO9" s="17"/>
+      <c r="CP9" s="17"/>
+      <c r="CQ9" s="17"/>
+      <c r="CR9" s="17"/>
+      <c r="CS9" s="17"/>
+      <c r="CT9" s="17"/>
+      <c r="CU9" s="17"/>
+      <c r="CV9" s="17"/>
+      <c r="CW9" s="17"/>
+      <c r="CX9" s="17"/>
+      <c r="CY9" s="17"/>
+      <c r="CZ9" s="17"/>
+      <c r="DA9" s="17"/>
+      <c r="DB9" s="17"/>
+      <c r="DC9" s="17"/>
+      <c r="DD9" s="17"/>
+      <c r="DE9" s="17"/>
+      <c r="DF9" s="17"/>
+      <c r="DG9" s="17"/>
+      <c r="DH9" s="17"/>
+      <c r="DI9" s="17"/>
+      <c r="DJ9" s="17"/>
+      <c r="DK9" s="17"/>
+      <c r="DL9" s="17"/>
+      <c r="DM9" s="17"/>
+      <c r="DN9" s="17"/>
+      <c r="DO9" s="17"/>
+      <c r="DP9" s="17"/>
+      <c r="DQ9" s="17"/>
+      <c r="DR9" s="17"/>
+      <c r="DS9" s="17"/>
+      <c r="DT9" s="17"/>
+      <c r="DU9" s="17"/>
+      <c r="DV9" s="17"/>
+      <c r="DW9" s="17"/>
+      <c r="DX9" s="17"/>
+      <c r="DY9" s="17"/>
+      <c r="DZ9" s="17"/>
+      <c r="EA9" s="17"/>
+      <c r="EB9" s="17"/>
+      <c r="EC9" s="17"/>
+      <c r="ED9" s="17"/>
+      <c r="EE9" s="17"/>
+      <c r="EF9" s="17"/>
+      <c r="EG9" s="17"/>
+      <c r="EH9" s="17"/>
+      <c r="EI9" s="17"/>
+      <c r="EJ9" s="17"/>
+      <c r="EK9" s="17"/>
+      <c r="EL9" s="17"/>
+      <c r="EM9" s="17"/>
+      <c r="EN9" s="17"/>
+      <c r="EO9" s="17"/>
+      <c r="EP9" s="17"/>
+      <c r="EQ9" s="17"/>
+      <c r="ER9" s="17"/>
+      <c r="ES9" s="17"/>
+      <c r="ET9" s="17"/>
+      <c r="EU9" s="17"/>
+      <c r="EV9" s="17"/>
+      <c r="EW9" s="17"/>
+      <c r="EX9" s="17"/>
+      <c r="EY9" s="17"/>
+      <c r="EZ9" s="17"/>
+      <c r="FA9" s="17"/>
+      <c r="FB9" s="17"/>
+      <c r="FC9" s="17"/>
+      <c r="FD9" s="17"/>
+      <c r="FE9" s="17"/>
+      <c r="FF9" s="17"/>
+      <c r="FG9" s="17"/>
+      <c r="FH9" s="17"/>
+      <c r="FI9" s="17"/>
+      <c r="FJ9" s="17"/>
+      <c r="FK9" s="17"/>
+      <c r="FL9" s="17"/>
+      <c r="FM9" s="17"/>
+      <c r="FN9" s="17"/>
+      <c r="FO9" s="17"/>
+      <c r="FP9" s="17"/>
+      <c r="FQ9" s="17"/>
+      <c r="FR9" s="17"/>
+      <c r="FS9" s="17"/>
+      <c r="FT9" s="17"/>
+      <c r="FU9" s="17"/>
+      <c r="FV9" s="17"/>
+      <c r="FW9" s="17"/>
+      <c r="FX9" s="17"/>
+      <c r="FY9" s="17"/>
+      <c r="FZ9" s="17"/>
+      <c r="GA9" s="17"/>
+      <c r="GB9" s="17"/>
+      <c r="GC9" s="17"/>
+      <c r="GD9" s="17"/>
+      <c r="GE9" s="17"/>
+      <c r="GF9" s="17"/>
+      <c r="GG9" s="17"/>
+      <c r="GH9" s="17"/>
+      <c r="GI9" s="17"/>
+      <c r="GJ9" s="17"/>
+      <c r="GK9" s="17"/>
+      <c r="GL9" s="17"/>
+      <c r="GM9" s="17"/>
+      <c r="GN9" s="17"/>
+      <c r="GO9" s="17"/>
+      <c r="GP9" s="17"/>
+      <c r="GQ9" s="17"/>
+      <c r="GR9" s="17"/>
+      <c r="GS9" s="17"/>
+      <c r="GT9" s="17"/>
+      <c r="GU9" s="17"/>
+      <c r="GV9" s="17"/>
+      <c r="GW9" s="17"/>
+      <c r="GX9" s="17"/>
+      <c r="GY9" s="17"/>
+      <c r="GZ9" s="17"/>
+      <c r="HA9" s="17"/>
+      <c r="HB9" s="17"/>
+      <c r="HC9" s="17"/>
+      <c r="HD9" s="17"/>
+      <c r="HE9" s="17"/>
+      <c r="HF9" s="17"/>
+      <c r="HG9" s="17"/>
+      <c r="HH9" s="17"/>
+      <c r="HI9" s="17"/>
+      <c r="HJ9" s="17"/>
+      <c r="HK9" s="17"/>
+      <c r="HL9" s="17"/>
+      <c r="HM9" s="17"/>
+      <c r="HN9" s="17"/>
+      <c r="HO9" s="17"/>
+      <c r="HP9" s="17"/>
+      <c r="HQ9" s="17"/>
+      <c r="HR9" s="17"/>
+      <c r="HS9" s="17"/>
+      <c r="HT9" s="17"/>
+      <c r="HU9" s="17"/>
+      <c r="HV9" s="17"/>
+      <c r="HW9" s="17"/>
+      <c r="HX9" s="17"/>
+      <c r="HY9" s="17"/>
+      <c r="HZ9" s="17"/>
+      <c r="IA9" s="17"/>
+      <c r="IB9" s="17"/>
+      <c r="IC9" s="17"/>
+      <c r="ID9" s="17"/>
+      <c r="IE9" s="17"/>
+      <c r="IF9" s="17"/>
+      <c r="IG9" s="17"/>
+      <c r="IH9" s="17"/>
+      <c r="II9" s="17"/>
+      <c r="IJ9" s="17"/>
+      <c r="IK9" s="17"/>
+      <c r="IL9" s="17"/>
+      <c r="IM9" s="17"/>
+      <c r="IN9" s="17"/>
+      <c r="IO9" s="17"/>
+      <c r="IP9" s="17"/>
+      <c r="IQ9" s="17"/>
+      <c r="IR9" s="17"/>
+      <c r="IS9" s="17"/>
+      <c r="IT9" s="17"/>
+      <c r="IU9" s="17"/>
+      <c r="IV9" s="17"/>
+    </row>
+    <row r="10" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="5"/>
+      <c r="BC11" s="5"/>
+      <c r="BD11" s="5"/>
+      <c r="BE11" s="5"/>
+      <c r="BF11" s="5"/>
+      <c r="BG11" s="5"/>
+      <c r="BH11" s="5"/>
+      <c r="BI11" s="5"/>
+      <c r="BJ11" s="5"/>
+      <c r="BK11" s="5"/>
+      <c r="BL11" s="5"/>
+      <c r="BM11" s="5"/>
+      <c r="BN11" s="5"/>
+      <c r="BO11" s="5"/>
+      <c r="BP11" s="5"/>
+      <c r="BQ11" s="5"/>
+      <c r="BR11" s="5"/>
+      <c r="BS11" s="5"/>
+      <c r="BT11" s="5"/>
+      <c r="BU11" s="5"/>
+      <c r="BV11" s="5"/>
+      <c r="BW11" s="5"/>
+      <c r="BX11" s="5"/>
+      <c r="BY11" s="5"/>
+      <c r="BZ11" s="5"/>
+      <c r="CA11" s="5"/>
+      <c r="CB11" s="5"/>
+      <c r="CC11" s="5"/>
+      <c r="CD11" s="5"/>
+      <c r="CE11" s="5"/>
+      <c r="CF11" s="5"/>
+      <c r="CG11" s="5"/>
+      <c r="CH11" s="5"/>
+      <c r="CI11" s="5"/>
+      <c r="CJ11" s="5"/>
+      <c r="CK11" s="5"/>
+      <c r="CL11" s="5"/>
+      <c r="CM11" s="5"/>
+      <c r="CN11" s="5"/>
+      <c r="CO11" s="5"/>
+      <c r="CP11" s="5"/>
+      <c r="CQ11" s="5"/>
+      <c r="CR11" s="5"/>
+      <c r="CS11" s="5"/>
+      <c r="CT11" s="5"/>
+      <c r="CU11" s="5"/>
+      <c r="CV11" s="5"/>
+      <c r="CW11" s="5"/>
+      <c r="CX11" s="5"/>
+      <c r="CY11" s="5"/>
+      <c r="CZ11" s="5"/>
+      <c r="DA11" s="5"/>
+      <c r="DB11" s="5"/>
+      <c r="DC11" s="5"/>
+      <c r="DD11" s="5"/>
+      <c r="DE11" s="5"/>
+      <c r="DF11" s="5"/>
+      <c r="DG11" s="5"/>
+      <c r="DH11" s="5"/>
+      <c r="DI11" s="5"/>
+      <c r="DJ11" s="5"/>
+      <c r="DK11" s="5"/>
+      <c r="DL11" s="5"/>
+      <c r="DM11" s="5"/>
+      <c r="DN11" s="5"/>
+      <c r="DO11" s="5"/>
+      <c r="DP11" s="5"/>
+      <c r="DQ11" s="5"/>
+      <c r="DR11" s="5"/>
+      <c r="DS11" s="5"/>
+      <c r="DT11" s="5"/>
+      <c r="DU11" s="5"/>
+      <c r="DV11" s="5"/>
+      <c r="DW11" s="5"/>
+      <c r="DX11" s="5"/>
+      <c r="DY11" s="5"/>
+      <c r="DZ11" s="5"/>
+      <c r="EA11" s="5"/>
+      <c r="EB11" s="5"/>
+      <c r="EC11" s="5"/>
+      <c r="ED11" s="5"/>
+      <c r="EE11" s="5"/>
+      <c r="EF11" s="5"/>
+      <c r="EG11" s="5"/>
+      <c r="EH11" s="5"/>
+      <c r="EI11" s="5"/>
+      <c r="EJ11" s="5"/>
+      <c r="EK11" s="5"/>
+      <c r="EL11" s="5"/>
+      <c r="EM11" s="5"/>
+      <c r="EN11" s="5"/>
+      <c r="EO11" s="5"/>
+      <c r="EP11" s="5"/>
+      <c r="EQ11" s="5"/>
+      <c r="ER11" s="5"/>
+      <c r="ES11" s="5"/>
+      <c r="ET11" s="5"/>
+      <c r="EU11" s="5"/>
+      <c r="EV11" s="5"/>
+      <c r="EW11" s="5"/>
+      <c r="EX11" s="5"/>
+      <c r="EY11" s="5"/>
+      <c r="EZ11" s="5"/>
+      <c r="FA11" s="5"/>
+      <c r="FB11" s="5"/>
+      <c r="FC11" s="5"/>
+      <c r="FD11" s="5"/>
+      <c r="FE11" s="5"/>
+      <c r="FF11" s="5"/>
+      <c r="FG11" s="5"/>
+      <c r="FH11" s="5"/>
+      <c r="FI11" s="5"/>
+      <c r="FJ11" s="5"/>
+      <c r="FK11" s="5"/>
+      <c r="FL11" s="5"/>
+      <c r="FM11" s="5"/>
+      <c r="FN11" s="5"/>
+      <c r="FO11" s="5"/>
+      <c r="FP11" s="5"/>
+      <c r="FQ11" s="5"/>
+      <c r="FR11" s="5"/>
+      <c r="FS11" s="5"/>
+      <c r="FT11" s="5"/>
+      <c r="FU11" s="5"/>
+      <c r="FV11" s="5"/>
+      <c r="FW11" s="5"/>
+      <c r="FX11" s="5"/>
+      <c r="FY11" s="5"/>
+      <c r="FZ11" s="5"/>
+      <c r="GA11" s="5"/>
+      <c r="GB11" s="5"/>
+      <c r="GC11" s="5"/>
+      <c r="GD11" s="5"/>
+      <c r="GE11" s="5"/>
+      <c r="GF11" s="5"/>
+      <c r="GG11" s="5"/>
+      <c r="GH11" s="5"/>
+      <c r="GI11" s="5"/>
+      <c r="GJ11" s="5"/>
+      <c r="GK11" s="5"/>
+      <c r="GL11" s="5"/>
+      <c r="GM11" s="5"/>
+      <c r="GN11" s="5"/>
+      <c r="GO11" s="5"/>
+      <c r="GP11" s="5"/>
+      <c r="GQ11" s="5"/>
+      <c r="GR11" s="5"/>
+      <c r="GS11" s="5"/>
+      <c r="GT11" s="5"/>
+      <c r="GU11" s="5"/>
+      <c r="GV11" s="5"/>
+      <c r="GW11" s="5"/>
+      <c r="GX11" s="5"/>
+      <c r="GY11" s="5"/>
+      <c r="GZ11" s="5"/>
+      <c r="HA11" s="5"/>
+      <c r="HB11" s="5"/>
+      <c r="HC11" s="5"/>
+      <c r="HD11" s="5"/>
+      <c r="HE11" s="5"/>
+      <c r="HF11" s="5"/>
+      <c r="HG11" s="5"/>
+      <c r="HH11" s="5"/>
+      <c r="HI11" s="5"/>
+      <c r="HJ11" s="5"/>
+      <c r="HK11" s="5"/>
+      <c r="HL11" s="5"/>
+      <c r="HM11" s="5"/>
+      <c r="HN11" s="5"/>
+      <c r="HO11" s="5"/>
+      <c r="HP11" s="5"/>
+      <c r="HQ11" s="5"/>
+      <c r="HR11" s="5"/>
+      <c r="HS11" s="5"/>
+      <c r="HT11" s="5"/>
+      <c r="HU11" s="5"/>
+      <c r="HV11" s="5"/>
+      <c r="HW11" s="5"/>
+      <c r="HX11" s="5"/>
+      <c r="HY11" s="5"/>
+      <c r="HZ11" s="5"/>
+      <c r="IA11" s="5"/>
+      <c r="IB11" s="5"/>
+      <c r="IC11" s="5"/>
+      <c r="ID11" s="5"/>
+      <c r="IE11" s="5"/>
+      <c r="IF11" s="5"/>
+      <c r="IG11" s="5"/>
+      <c r="IH11" s="5"/>
+      <c r="II11" s="5"/>
+      <c r="IJ11" s="5"/>
+      <c r="IK11" s="5"/>
+      <c r="IL11" s="5"/>
+      <c r="IM11" s="5"/>
+      <c r="IN11" s="5"/>
+      <c r="IO11" s="5"/>
+      <c r="IP11" s="5"/>
+      <c r="IQ11" s="5"/>
+      <c r="IR11" s="5"/>
+      <c r="IS11" s="5"/>
+      <c r="IT11" s="5"/>
+      <c r="IU11" s="5"/>
+    </row>
+    <row r="12" spans="1:256" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:256" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:256" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="31">
+        <v>1</v>
+      </c>
+      <c r="B14" s="54"/>
+    </row>
+    <row r="15" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="5"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="5"/>
+      <c r="BD15" s="5"/>
+      <c r="BE15" s="5"/>
+      <c r="BF15" s="5"/>
+      <c r="BG15" s="5"/>
+      <c r="BH15" s="5"/>
+      <c r="BI15" s="5"/>
+      <c r="BJ15" s="5"/>
+      <c r="BK15" s="5"/>
+      <c r="BL15" s="5"/>
+      <c r="BM15" s="5"/>
+      <c r="BN15" s="5"/>
+      <c r="BO15" s="5"/>
+      <c r="BP15" s="5"/>
+      <c r="BQ15" s="5"/>
+      <c r="BR15" s="5"/>
+      <c r="BS15" s="5"/>
+      <c r="BT15" s="5"/>
+      <c r="BU15" s="5"/>
+      <c r="BV15" s="5"/>
+      <c r="BW15" s="5"/>
+      <c r="BX15" s="5"/>
+      <c r="BY15" s="5"/>
+      <c r="BZ15" s="5"/>
+      <c r="CA15" s="5"/>
+      <c r="CB15" s="5"/>
+      <c r="CC15" s="5"/>
+      <c r="CD15" s="5"/>
+      <c r="CE15" s="5"/>
+      <c r="CF15" s="5"/>
+      <c r="CG15" s="5"/>
+      <c r="CH15" s="5"/>
+      <c r="CI15" s="5"/>
+      <c r="CJ15" s="5"/>
+      <c r="CK15" s="5"/>
+      <c r="CL15" s="5"/>
+      <c r="CM15" s="5"/>
+      <c r="CN15" s="5"/>
+      <c r="CO15" s="5"/>
+      <c r="CP15" s="5"/>
+      <c r="CQ15" s="5"/>
+      <c r="CR15" s="5"/>
+      <c r="CS15" s="5"/>
+      <c r="CT15" s="5"/>
+      <c r="CU15" s="5"/>
+      <c r="CV15" s="5"/>
+      <c r="CW15" s="5"/>
+      <c r="CX15" s="5"/>
+      <c r="CY15" s="5"/>
+      <c r="CZ15" s="5"/>
+      <c r="DA15" s="5"/>
+      <c r="DB15" s="5"/>
+      <c r="DC15" s="5"/>
+      <c r="DD15" s="5"/>
+      <c r="DE15" s="5"/>
+      <c r="DF15" s="5"/>
+      <c r="DG15" s="5"/>
+      <c r="DH15" s="5"/>
+      <c r="DI15" s="5"/>
+      <c r="DJ15" s="5"/>
+      <c r="DK15" s="5"/>
+      <c r="DL15" s="5"/>
+      <c r="DM15" s="5"/>
+      <c r="DN15" s="5"/>
+      <c r="DO15" s="5"/>
+      <c r="DP15" s="5"/>
+      <c r="DQ15" s="5"/>
+      <c r="DR15" s="5"/>
+      <c r="DS15" s="5"/>
+      <c r="DT15" s="5"/>
+      <c r="DU15" s="5"/>
+      <c r="DV15" s="5"/>
+      <c r="DW15" s="5"/>
+      <c r="DX15" s="5"/>
+      <c r="DY15" s="5"/>
+      <c r="DZ15" s="5"/>
+      <c r="EA15" s="5"/>
+      <c r="EB15" s="5"/>
+      <c r="EC15" s="5"/>
+      <c r="ED15" s="5"/>
+      <c r="EE15" s="5"/>
+      <c r="EF15" s="5"/>
+      <c r="EG15" s="5"/>
+      <c r="EH15" s="5"/>
+      <c r="EI15" s="5"/>
+      <c r="EJ15" s="5"/>
+      <c r="EK15" s="5"/>
+      <c r="EL15" s="5"/>
+      <c r="EM15" s="5"/>
+      <c r="EN15" s="5"/>
+      <c r="EO15" s="5"/>
+      <c r="EP15" s="5"/>
+      <c r="EQ15" s="5"/>
+      <c r="ER15" s="5"/>
+      <c r="ES15" s="5"/>
+      <c r="ET15" s="5"/>
+      <c r="EU15" s="5"/>
+      <c r="EV15" s="5"/>
+      <c r="EW15" s="5"/>
+      <c r="EX15" s="5"/>
+      <c r="EY15" s="5"/>
+      <c r="EZ15" s="5"/>
+      <c r="FA15" s="5"/>
+      <c r="FB15" s="5"/>
+      <c r="FC15" s="5"/>
+      <c r="FD15" s="5"/>
+      <c r="FE15" s="5"/>
+      <c r="FF15" s="5"/>
+      <c r="FG15" s="5"/>
+      <c r="FH15" s="5"/>
+      <c r="FI15" s="5"/>
+      <c r="FJ15" s="5"/>
+      <c r="FK15" s="5"/>
+      <c r="FL15" s="5"/>
+      <c r="FM15" s="5"/>
+      <c r="FN15" s="5"/>
+      <c r="FO15" s="5"/>
+      <c r="FP15" s="5"/>
+      <c r="FQ15" s="5"/>
+      <c r="FR15" s="5"/>
+      <c r="FS15" s="5"/>
+      <c r="FT15" s="5"/>
+      <c r="FU15" s="5"/>
+      <c r="FV15" s="5"/>
+      <c r="FW15" s="5"/>
+      <c r="FX15" s="5"/>
+      <c r="FY15" s="5"/>
+      <c r="FZ15" s="5"/>
+      <c r="GA15" s="5"/>
+      <c r="GB15" s="5"/>
+      <c r="GC15" s="5"/>
+      <c r="GD15" s="5"/>
+      <c r="GE15" s="5"/>
+      <c r="GF15" s="5"/>
+      <c r="GG15" s="5"/>
+      <c r="GH15" s="5"/>
+      <c r="GI15" s="5"/>
+      <c r="GJ15" s="5"/>
+      <c r="GK15" s="5"/>
+      <c r="GL15" s="5"/>
+      <c r="GM15" s="5"/>
+      <c r="GN15" s="5"/>
+      <c r="GO15" s="5"/>
+      <c r="GP15" s="5"/>
+      <c r="GQ15" s="5"/>
+      <c r="GR15" s="5"/>
+      <c r="GS15" s="5"/>
+      <c r="GT15" s="5"/>
+      <c r="GU15" s="5"/>
+      <c r="GV15" s="5"/>
+      <c r="GW15" s="5"/>
+      <c r="GX15" s="5"/>
+      <c r="GY15" s="5"/>
+      <c r="GZ15" s="5"/>
+      <c r="HA15" s="5"/>
+      <c r="HB15" s="5"/>
+      <c r="HC15" s="5"/>
+      <c r="HD15" s="5"/>
+      <c r="HE15" s="5"/>
+      <c r="HF15" s="5"/>
+      <c r="HG15" s="5"/>
+      <c r="HH15" s="5"/>
+      <c r="HI15" s="5"/>
+      <c r="HJ15" s="5"/>
+      <c r="HK15" s="5"/>
+      <c r="HL15" s="5"/>
+      <c r="HM15" s="5"/>
+      <c r="HN15" s="5"/>
+      <c r="HO15" s="5"/>
+      <c r="HP15" s="5"/>
+      <c r="HQ15" s="5"/>
+      <c r="HR15" s="5"/>
+      <c r="HS15" s="5"/>
+      <c r="HT15" s="5"/>
+      <c r="HU15" s="5"/>
+      <c r="HV15" s="5"/>
+      <c r="HW15" s="5"/>
+      <c r="HX15" s="5"/>
+      <c r="HY15" s="5"/>
+      <c r="HZ15" s="5"/>
+      <c r="IA15" s="5"/>
+      <c r="IB15" s="5"/>
+      <c r="IC15" s="5"/>
+      <c r="ID15" s="5"/>
+      <c r="IE15" s="5"/>
+      <c r="IF15" s="5"/>
+      <c r="IG15" s="5"/>
+      <c r="IH15" s="5"/>
+      <c r="II15" s="5"/>
+      <c r="IJ15" s="5"/>
+      <c r="IK15" s="5"/>
+      <c r="IL15" s="5"/>
+      <c r="IM15" s="5"/>
+      <c r="IN15" s="5"/>
+      <c r="IO15" s="5"/>
+      <c r="IP15" s="5"/>
+      <c r="IQ15" s="5"/>
+      <c r="IR15" s="5"/>
+      <c r="IS15" s="5"/>
+      <c r="IT15" s="5"/>
+      <c r="IU15" s="5"/>
+    </row>
+    <row r="16" spans="1:256" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+    </row>
+    <row r="17" spans="1:15" s="41" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"さざなみ明朝,太字"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"さざなみ明朝,太字"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/test/java/com/nablarch/example/app/web/action/ProjectUploadActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectUploadActionRequestTest.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994A8EC0-CA32-4BA8-A8C2-17EBAB9D512E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2222B66-306F-410F-B4A6-3DB1DE6DB608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="139">
   <si>
     <t>1</t>
     <phoneticPr fontId="2"/>
@@ -521,10 +521,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>// ※ExampleアプリケーションはHTTPメソッドを指定できるように独自拡張を加えている</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -781,7 +777,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="メイリオ"/>
@@ -862,12 +858,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1081,11 +1071,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1532,7 +1522,7 @@
     <row r="3" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -1543,81 +1533,81 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="D5" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="35" t="s">
+      <c r="F5" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="G5" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="H5" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="I5" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="J5" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="K5" s="35" t="s">
         <v>111</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="C6" s="30" t="s">
         <v>114</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>115</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="G6" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="H6" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="I6" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="J6" s="52"/>
+      <c r="K6" s="51" t="s">
         <v>120</v>
-      </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="52" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>134</v>
-      </c>
       <c r="C7" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>76</v>
@@ -1625,21 +1615,21 @@
       <c r="E7" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="H7" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="I7" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="52" t="s">
-        <v>118</v>
+      <c r="J7" s="52"/>
+      <c r="K7" s="51" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.35">
@@ -1656,7 +1646,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -1667,13 +1657,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="C10" s="35" t="s">
         <v>124</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>125</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -1687,10 +1677,10 @@
         <v>19</v>
       </c>
       <c r="B11" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>131</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>132</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
@@ -1701,13 +1691,13 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>135</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>136</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -3236,9 +3226,7 @@
       <c r="IV9" s="17"/>
     </row>
     <row r="10" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="s">
-        <v>96</v>
-      </c>
+      <c r="A10" s="54"/>
       <c r="B10" s="19"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -4124,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>20</v>
@@ -4133,12 +4121,12 @@
         <v>51</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:255" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -4927,7 +4915,7 @@
         <v>53</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>95</v>
@@ -5186,9 +5174,7 @@
       <c r="IU9" s="17"/>
     </row>
     <row r="10" spans="1:255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="s">
-        <v>96</v>
-      </c>
+      <c r="A10" s="54"/>
       <c r="B10" s="19"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -7430,7 +7416,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -8192,10 +8178,10 @@
     </row>
     <row r="6" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>20</v>
@@ -8207,7 +8193,7 @@
         <v>83</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G6" s="46" t="s">
         <v>0</v>
@@ -8219,10 +8205,10 @@
     </row>
     <row r="7" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>20</v>
@@ -8234,7 +8220,7 @@
         <v>83</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G7" s="46" t="s">
         <v>0</v>
@@ -9577,7 +9563,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:255" ht="15" x14ac:dyDescent="0.35">
@@ -9585,23 +9571,23 @@
         <v>87</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
@@ -10267,7 +10253,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>20</v>
@@ -10276,7 +10262,7 @@
         <v>51</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="46" t="s">
@@ -10284,7 +10270,7 @@
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -11074,7 +11060,7 @@
         <v>54</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -11619,7 +11605,7 @@
       <c r="A14" s="31">
         <v>1</v>
       </c>
-      <c r="B14" s="54"/>
+      <c r="B14" s="53"/>
     </row>
     <row r="15" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectUploadActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectUploadActionRequestTest.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2222B66-306F-410F-B4A6-3DB1DE6DB608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7393DF-DE45-44F1-AAA7-DDB45374FDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="140">
   <si>
     <t>1</t>
     <phoneticPr fontId="2"/>
@@ -770,6 +770,10 @@
   </si>
   <si>
     <t>/WEB-INF/view/common/errorPages/permissionError.jsp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>POST</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6610,7 +6614,9 @@
       <c r="B8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -6872,7 +6878,9 @@
       <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -8757,7 +8765,9 @@
       <c r="B11" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -9019,7 +9029,9 @@
       <c r="B12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -10800,7 +10812,9 @@
       <c r="B8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -11062,7 +11076,9 @@
       <c r="B9" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectUploadActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectUploadActionRequestTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7393DF-DE45-44F1-AAA7-DDB45374FDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983CD1F9-4470-4354-B59E-0081CACAECEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectUploadActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectUploadActionRequestTest.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2222B66-306F-410F-B4A6-3DB1DE6DB608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983CD1F9-4470-4354-B59E-0081CACAECEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="140">
   <si>
     <t>1</t>
     <phoneticPr fontId="2"/>
@@ -770,6 +770,10 @@
   </si>
   <si>
     <t>/WEB-INF/view/common/errorPages/permissionError.jsp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>POST</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6610,7 +6614,9 @@
       <c r="B8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -6872,7 +6878,9 @@
       <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -8757,7 +8765,9 @@
       <c r="B11" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -9019,7 +9029,9 @@
       <c r="B12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -10800,7 +10812,9 @@
       <c r="B8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -11062,7 +11076,9 @@
       <c r="B9" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
